--- a/Реєстр Укртатнафта Jet A-1.xlsx
+++ b/Реєстр Укртатнафта Jet A-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disk_c\Desktop\Реєстри Вересень 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B38A63F-DB41-474F-AEB8-70233C915D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0775741-038F-4913-9182-18F480833028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <definedName name="_ПРАЙС_АКТУАЛЬНЫЙ_">'[1]=СВЕДЕНИЕ='!$AF$6:$AG$18</definedName>
     <definedName name="_ПРАЙС_ДАТА">'[1]=СВЕДЕНИЕ='!$AF$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'r15°C'!$A$1:$Q$329</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">согласование!$A$1:$L$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">согласование!$A$1:$L$222</definedName>
     <definedName name="_ЦК_">'[1]=СВЕДЕНИЕ='!$AF$7:$AF$18</definedName>
     <definedName name="ЕГРПОУ">'[1]=СВЕДЕНИЕ='!$F$7:$F$137</definedName>
     <definedName name="НАЗВАНИЯ">'[1]=СВЕДЕНИЕ='!$G$7:$G$137</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="291">
   <si>
     <t>Дата</t>
   </si>
@@ -1021,513 +1021,6 @@
   <si>
     <t>2292</t>
   </si>
-  <si>
-    <t>2293</t>
-  </si>
-  <si>
-    <t>RYR  3752</t>
-  </si>
-  <si>
-    <t>9H-QDY</t>
-  </si>
-  <si>
-    <t>2294</t>
-  </si>
-  <si>
-    <t>4XCMC</t>
-  </si>
-  <si>
-    <t>C 560</t>
-  </si>
-  <si>
-    <t>4X-CMC</t>
-  </si>
-  <si>
-    <t>2295</t>
-  </si>
-  <si>
-    <t>00177</t>
-  </si>
-  <si>
-    <t>SQP  495</t>
-  </si>
-  <si>
-    <t>2296</t>
-  </si>
-  <si>
-    <t>SP-RKW</t>
-  </si>
-  <si>
-    <t>2297</t>
-  </si>
-  <si>
-    <t>00178</t>
-  </si>
-  <si>
-    <t>2298</t>
-  </si>
-  <si>
-    <t>WZZ  1844</t>
-  </si>
-  <si>
-    <t>HA-LYB</t>
-  </si>
-  <si>
-    <t>2299</t>
-  </si>
-  <si>
-    <t>EI-DYB</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>RYR  3756</t>
-  </si>
-  <si>
-    <t>RYR  7859</t>
-  </si>
-  <si>
-    <t>9H-QCS</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>SQP  4535</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>SP-RKP</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>WZZ 6761</t>
-  </si>
-  <si>
-    <t>HA-LPY</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>EI-EVV</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2313</t>
-  </si>
-  <si>
-    <t>00465</t>
-  </si>
-  <si>
-    <t>2314</t>
-  </si>
-  <si>
-    <t>9H-QDZ</t>
-  </si>
-  <si>
-    <t>2315</t>
-  </si>
-  <si>
-    <t>UR-SQI</t>
-  </si>
-  <si>
-    <t>AUI 5561</t>
-  </si>
-  <si>
-    <t>Салоніки</t>
-  </si>
-  <si>
-    <t>UBE 9007</t>
-  </si>
-  <si>
-    <t>IR-UBB</t>
-  </si>
-  <si>
-    <t>00466</t>
-  </si>
-  <si>
-    <t>00180</t>
-  </si>
-  <si>
-    <t>2320</t>
-  </si>
-  <si>
-    <t>2319</t>
-  </si>
-  <si>
-    <t>2318</t>
-  </si>
-  <si>
-    <t>2317</t>
-  </si>
-  <si>
-    <t>2316</t>
-  </si>
-  <si>
-    <t>E-195</t>
-  </si>
-  <si>
-    <t>LOT 766</t>
-  </si>
-  <si>
-    <t>SP-LNK</t>
-  </si>
-  <si>
-    <t>RYR 3758</t>
-  </si>
-  <si>
-    <t>9H-QDC</t>
-  </si>
-  <si>
-    <t>2321</t>
-  </si>
-  <si>
-    <t>Венеція</t>
-  </si>
-  <si>
-    <t>UR-UBD</t>
-  </si>
-  <si>
-    <t>2322</t>
-  </si>
-  <si>
-    <t>UR-UIA</t>
-  </si>
-  <si>
-    <t>2323</t>
-  </si>
-  <si>
-    <t>LOT 764</t>
-  </si>
-  <si>
-    <t>E-175</t>
-  </si>
-  <si>
-    <t>SP-LIA</t>
-  </si>
-  <si>
-    <t>2327</t>
-  </si>
-  <si>
-    <t>HZ-NS27</t>
-  </si>
-  <si>
-    <t>2328</t>
-  </si>
-  <si>
-    <t>2333</t>
-  </si>
-  <si>
-    <t>2334</t>
-  </si>
-  <si>
-    <t>SPUSS</t>
-  </si>
-  <si>
-    <t>EC20</t>
-  </si>
-  <si>
-    <t>SP-USS</t>
-  </si>
-  <si>
-    <t>2335</t>
-  </si>
-  <si>
-    <t>Ізки</t>
-  </si>
-  <si>
-    <t>UBE 427</t>
-  </si>
-  <si>
-    <t>2336</t>
-  </si>
-  <si>
-    <t>Родос</t>
-  </si>
-  <si>
-    <t>2337</t>
-  </si>
-  <si>
-    <t>SP-RKV</t>
-  </si>
-  <si>
-    <t>WZZ 6701</t>
-  </si>
-  <si>
-    <t>2338</t>
-  </si>
-  <si>
-    <t>UR-PSZ</t>
-  </si>
-  <si>
-    <t>2339</t>
-  </si>
-  <si>
-    <t>E-190</t>
-  </si>
-  <si>
-    <t>SP-JNI</t>
-  </si>
-  <si>
-    <t>2341</t>
-  </si>
-  <si>
-    <t>UR-PSN</t>
-  </si>
-  <si>
-    <t>2342</t>
-  </si>
-  <si>
-    <t>2344</t>
-  </si>
-  <si>
-    <t>00184</t>
-  </si>
-  <si>
-    <t>SQP  585</t>
-  </si>
-  <si>
-    <t>2343</t>
-  </si>
-  <si>
-    <t>Шарм-Ель-Шейх</t>
-  </si>
-  <si>
-    <t>2346</t>
-  </si>
-  <si>
-    <t>SP-LNI</t>
-  </si>
-  <si>
-    <t>2347</t>
-  </si>
-  <si>
-    <t>00182</t>
-  </si>
-  <si>
-    <t>2348</t>
-  </si>
-  <si>
-    <t>00183</t>
-  </si>
-  <si>
-    <t>2350</t>
-  </si>
-  <si>
-    <t>RYR 4295</t>
-  </si>
-  <si>
-    <t>SP-RSR</t>
-  </si>
-  <si>
-    <t>2351</t>
-  </si>
-  <si>
-    <t>2352</t>
-  </si>
-  <si>
-    <t>2353</t>
-  </si>
-  <si>
-    <t>00185</t>
-  </si>
-  <si>
-    <t>00186</t>
-  </si>
-  <si>
-    <t>2354</t>
-  </si>
-  <si>
-    <t>2355</t>
-  </si>
-  <si>
-    <t>2356</t>
-  </si>
-  <si>
-    <t>UR-SQG</t>
-  </si>
-  <si>
-    <t>UR-SQK</t>
-  </si>
-  <si>
-    <t>2357</t>
-  </si>
-  <si>
-    <t>2358</t>
-  </si>
-  <si>
-    <t>RYR  5439</t>
-  </si>
-  <si>
-    <t>2361</t>
-  </si>
-  <si>
-    <t>9H-QAI</t>
-  </si>
-  <si>
-    <t>2362</t>
-  </si>
-  <si>
-    <t>SP-LIO</t>
-  </si>
-  <si>
-    <t>2363</t>
-  </si>
-  <si>
-    <t>9H-QAF</t>
-  </si>
-  <si>
-    <t>2364</t>
-  </si>
-  <si>
-    <t>AUA 382</t>
-  </si>
-  <si>
-    <t>OE-LWG</t>
-  </si>
-  <si>
-    <t>2365</t>
-  </si>
-  <si>
-    <t>Відень</t>
-  </si>
-  <si>
-    <t>2366</t>
-  </si>
-  <si>
-    <t>00188</t>
-  </si>
-  <si>
-    <t>SP-LNF</t>
-  </si>
-  <si>
-    <t>2367</t>
-  </si>
-  <si>
-    <t>EI-EFV</t>
-  </si>
-  <si>
-    <t>2368</t>
-  </si>
-  <si>
-    <t>2369</t>
-  </si>
-  <si>
-    <t>RYR 3752</t>
-  </si>
-  <si>
-    <t>9H-QDT</t>
-  </si>
-  <si>
-    <t>2370</t>
-  </si>
-  <si>
-    <t>9H-QBZ</t>
-  </si>
-  <si>
-    <t>2371</t>
-  </si>
-  <si>
-    <t>Болонія</t>
-  </si>
-  <si>
-    <t>2372</t>
-  </si>
-  <si>
-    <t>LOT 758</t>
-  </si>
-  <si>
-    <t>SP-LNM</t>
-  </si>
-  <si>
-    <t>2373</t>
-  </si>
-  <si>
-    <t>2374</t>
-  </si>
-  <si>
-    <t>2375</t>
-  </si>
-  <si>
-    <t>AUI 5161</t>
-  </si>
-  <si>
-    <t>2376</t>
-  </si>
-  <si>
-    <t>00190</t>
-  </si>
-  <si>
-    <t>роза+RC:RC[1]</t>
-  </si>
-  <si>
-    <t>Женева</t>
-  </si>
-  <si>
-    <t>AUI  5761</t>
-  </si>
-  <si>
-    <t>UR-PSX</t>
-  </si>
-  <si>
-    <t>2378</t>
-  </si>
-  <si>
-    <t>YR CMO</t>
-  </si>
-  <si>
-    <t>C-510</t>
-  </si>
-  <si>
-    <t>YR-CMO</t>
-  </si>
-  <si>
-    <t>HA-LYE</t>
-  </si>
-  <si>
-    <t>2379</t>
-  </si>
-  <si>
-    <t>2380</t>
-  </si>
-  <si>
-    <t>SP-LWF</t>
-  </si>
-  <si>
-    <t>2381</t>
-  </si>
-  <si>
-    <t>2385</t>
-  </si>
-  <si>
-    <t>2396</t>
-  </si>
-  <si>
-    <t>00192</t>
-  </si>
-  <si>
-    <t>00196</t>
-  </si>
 </sst>
 </file>
 
@@ -1653,7 +1146,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1681,12 +1174,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,7 +1292,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
@@ -1977,10 +1464,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -10848,10 +10331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M288"/>
+  <dimension ref="A1:M289"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C183" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G199" sqref="G199:H199"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -13177,11 +12660,11 @@
         <v>7700</v>
       </c>
       <c r="J54" s="13">
-        <f t="shared" ref="J54:J117" si="4">IFERROR(ROUND((ROUND(INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2)+ROUND(INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2))/2000,4),)</f>
+        <f t="shared" ref="J54:J94" si="4">IFERROR(ROUND((ROUND(INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2)+ROUND(INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2))/2000,4),)</f>
         <v>0.79820000000000002</v>
       </c>
       <c r="K54" s="14">
-        <f t="shared" ref="K54:K117" si="5">IFERROR(ROUND(F:F/J:J,0),)</f>
+        <f t="shared" ref="K54:K94" si="5">IFERROR(ROUND(F:F/J:J,0),)</f>
         <v>7679</v>
       </c>
       <c r="L54" s="15" t="s">
@@ -14553,11 +14036,11 @@
         <v>1890</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J86" si="6">IFERROR(ROUND((ROUND(INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2)+ROUND(INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2))/2000,4),)</f>
         <v>0.79779999999999995</v>
       </c>
       <c r="K86" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K86" si="7">IFERROR(ROUND(F:F/J:J,0),)</f>
         <v>1881</v>
       </c>
       <c r="L86" s="15" t="s">
@@ -14940,11 +14423,11 @@
         <v>3563</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J95:J127" si="8">IFERROR(ROUND((ROUND(INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2)+ROUND(INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2))/2000,4),)</f>
         <v>0.79830000000000001</v>
       </c>
       <c r="K95" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K95:K127" si="9">IFERROR(ROUND(F:F/J:J,0),)</f>
         <v>3580</v>
       </c>
       <c r="L95" s="19" t="s">
@@ -14983,11 +14466,11 @@
         <v>4420</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.79779999999999995</v>
       </c>
       <c r="K96" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4398</v>
       </c>
       <c r="L96" s="19" t="s">
@@ -15026,11 +14509,11 @@
         <v>3464</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.79779999999999995</v>
       </c>
       <c r="K97" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3447</v>
       </c>
       <c r="L97" s="15" t="s">
@@ -15069,11 +14552,11 @@
         <v>6900</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.79779999999999995</v>
       </c>
       <c r="K98" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6868</v>
       </c>
       <c r="L98" s="19" t="s">
@@ -15112,11 +14595,11 @@
         <v>1181</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.79779999999999995</v>
       </c>
       <c r="K99" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1176</v>
       </c>
       <c r="L99" s="19" t="s">
@@ -15155,11 +14638,11 @@
         <v>9300</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.79779999999999995</v>
       </c>
       <c r="K100" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9255</v>
       </c>
       <c r="L100" s="19" t="s">
@@ -15198,11 +14681,11 @@
         <v>2802</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.79779999999999995</v>
       </c>
       <c r="K101" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2789</v>
       </c>
       <c r="L101" s="19" t="s">
@@ -15241,11 +14724,11 @@
         <v>13834</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.79800000000000004</v>
       </c>
       <c r="K102" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13835</v>
       </c>
       <c r="L102" s="15" t="s">
@@ -15256,3848 +14739,1890 @@
       </c>
     </row>
     <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F103" s="12">
-        <v>6147</v>
-      </c>
-      <c r="G103" s="30">
-        <v>10</v>
-      </c>
-      <c r="H103" s="36">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="I103" s="22">
-        <v>7665</v>
-      </c>
+      <c r="A103" s="9"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="22"/>
       <c r="J103" s="13">
-        <f t="shared" si="4"/>
-        <v>0.79830000000000001</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K103" s="14">
-        <f t="shared" si="5"/>
-        <v>7700</v>
-      </c>
-      <c r="L103" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M103" s="42" t="s">
-        <v>26</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L103" s="19"/>
+      <c r="M103" s="42"/>
     </row>
     <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="F104" s="12">
-        <v>4384</v>
-      </c>
-      <c r="G104" s="27">
-        <v>10</v>
-      </c>
-      <c r="H104" s="35">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="I104" s="12">
-        <v>5466</v>
-      </c>
+      <c r="A104" s="9"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="12"/>
       <c r="J104" s="13">
-        <f t="shared" si="4"/>
-        <v>0.79830000000000001</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K104" s="14">
-        <f t="shared" si="5"/>
-        <v>5492</v>
-      </c>
-      <c r="L104" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M104" s="41" t="s">
-        <v>67</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L104" s="19"/>
+      <c r="M104" s="42"/>
     </row>
     <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F105" s="12">
-        <v>1843</v>
-      </c>
-      <c r="G105" s="27">
-        <v>10</v>
-      </c>
-      <c r="H105" s="34">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="I105" s="12">
-        <v>2298</v>
-      </c>
+      <c r="A105" s="9"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="12"/>
       <c r="J105" s="13">
-        <f t="shared" si="4"/>
-        <v>0.79830000000000001</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K105" s="14">
-        <f t="shared" si="5"/>
-        <v>2309</v>
-      </c>
-      <c r="L105" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M105" s="42" t="s">
-        <v>202</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L105" s="15"/>
+      <c r="M105" s="42"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="F106" s="12">
-        <v>5516</v>
-      </c>
-      <c r="G106" s="27">
-        <v>12</v>
-      </c>
-      <c r="H106" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="I106" s="12">
-        <v>6895</v>
-      </c>
+      <c r="A106" s="9"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="12"/>
       <c r="J106" s="13">
-        <f t="shared" si="4"/>
-        <v>0.79779999999999995</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K106" s="14">
-        <f t="shared" si="5"/>
-        <v>6914</v>
-      </c>
-      <c r="L106" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="M106" s="42" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L106" s="19"/>
+      <c r="M106" s="42"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B107" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="F107" s="12">
-        <v>4206</v>
-      </c>
-      <c r="G107" s="27">
-        <v>12</v>
-      </c>
-      <c r="H107" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="I107" s="12">
-        <v>5257</v>
-      </c>
+      <c r="A107" s="9"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="12"/>
       <c r="J107" s="13">
-        <f t="shared" si="4"/>
-        <v>0.79779999999999995</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K107" s="14">
-        <f t="shared" si="5"/>
-        <v>5272</v>
-      </c>
-      <c r="L107" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M107" s="42" t="s">
-        <v>100</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L107" s="19"/>
+      <c r="M107" s="42"/>
     </row>
     <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="F108" s="12">
-        <v>2442</v>
-      </c>
-      <c r="G108" s="27">
-        <v>10</v>
-      </c>
-      <c r="H108" s="34">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="I108" s="12">
-        <v>3045</v>
-      </c>
+      <c r="A108" s="9"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="12"/>
       <c r="J108" s="13">
-        <f t="shared" si="4"/>
-        <v>0.79830000000000001</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K108" s="14">
-        <f t="shared" si="5"/>
-        <v>3059</v>
-      </c>
-      <c r="L108" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M108" s="42" t="s">
-        <v>217</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L108" s="19"/>
+      <c r="M108" s="42"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="F109" s="12">
-        <v>295</v>
-      </c>
-      <c r="G109" s="27">
-        <v>10</v>
-      </c>
-      <c r="H109" s="34">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="I109" s="12">
-        <v>3658</v>
-      </c>
+      <c r="A109" s="9"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="12"/>
       <c r="J109" s="13">
-        <f t="shared" si="4"/>
-        <v>0.79830000000000001</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K109" s="14">
-        <f t="shared" si="5"/>
-        <v>370</v>
-      </c>
-      <c r="L109" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="M109" s="46" t="s">
-        <v>32</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L109" s="19"/>
+      <c r="M109" s="42"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="F110" s="12">
-        <v>4507</v>
-      </c>
-      <c r="G110" s="27">
-        <v>10</v>
-      </c>
-      <c r="H110" s="34">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="I110" s="12">
-        <v>5620</v>
-      </c>
+      <c r="A110" s="9"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="12"/>
       <c r="J110" s="13">
-        <f t="shared" si="4"/>
-        <v>0.79830000000000001</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K110" s="14">
-        <f t="shared" si="5"/>
-        <v>5646</v>
-      </c>
-      <c r="L110" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M110" s="42" t="s">
-        <v>88</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L110" s="19"/>
+      <c r="M110" s="42"/>
     </row>
     <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="F111" s="12">
-        <v>2497</v>
-      </c>
-      <c r="G111" s="27">
-        <v>18</v>
-      </c>
-      <c r="H111" s="34">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I111" s="22">
-        <v>3137</v>
-      </c>
+      <c r="A111" s="9"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="22"/>
       <c r="J111" s="13">
-        <f t="shared" si="4"/>
-        <v>0.79820000000000002</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K111" s="14">
-        <f t="shared" si="5"/>
-        <v>3128</v>
-      </c>
-      <c r="L111" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M111" s="42" t="s">
-        <v>71</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L111" s="19"/>
+      <c r="M111" s="42"/>
     </row>
     <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="F112" s="12">
-        <v>5345</v>
-      </c>
-      <c r="G112" s="27">
-        <v>18</v>
-      </c>
-      <c r="H112" s="34">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I112" s="12">
-        <v>6715</v>
-      </c>
+      <c r="A112" s="9"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="12"/>
       <c r="J112" s="13">
-        <f t="shared" si="4"/>
-        <v>0.79820000000000002</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K112" s="14">
-        <f t="shared" si="5"/>
-        <v>6696</v>
-      </c>
-      <c r="L112" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M112" s="41" t="s">
-        <v>75</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="19"/>
+      <c r="M112" s="42"/>
     </row>
     <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="F113" s="12">
-        <v>3791</v>
-      </c>
-      <c r="G113" s="30">
-        <v>18</v>
-      </c>
-      <c r="H113" s="36">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I113" s="12">
-        <v>4762</v>
-      </c>
+      <c r="A113" s="9"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="12"/>
       <c r="J113" s="13">
-        <f t="shared" si="4"/>
-        <v>0.79820000000000002</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K113" s="14">
-        <f t="shared" si="5"/>
-        <v>4749</v>
-      </c>
-      <c r="L113" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M113" s="42" t="s">
-        <v>238</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L113" s="19"/>
+      <c r="M113" s="42"/>
     </row>
     <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B114" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="F114" s="12">
-        <v>5003</v>
-      </c>
-      <c r="G114" s="27">
-        <v>20</v>
-      </c>
-      <c r="H114" s="35">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I114" s="12">
-        <v>6285</v>
-      </c>
+      <c r="A114" s="9"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="12"/>
       <c r="J114" s="13">
-        <f t="shared" si="4"/>
-        <v>0.79969999999999997</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K114" s="14">
-        <f t="shared" si="5"/>
-        <v>6256</v>
-      </c>
-      <c r="L114" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M114" s="42" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L114" s="19"/>
+      <c r="M114" s="42"/>
     </row>
     <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="E115" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="F115" s="18">
-        <v>1711</v>
-      </c>
-      <c r="G115" s="27">
-        <v>20</v>
-      </c>
-      <c r="H115" s="35">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I115" s="18">
-        <v>2149</v>
-      </c>
+      <c r="A115" s="9"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="18"/>
       <c r="J115" s="13">
-        <f t="shared" si="4"/>
-        <v>0.79969999999999997</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K115" s="14">
-        <f t="shared" si="5"/>
-        <v>2140</v>
-      </c>
-      <c r="L115" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M115" s="42" t="s">
-        <v>260</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L115" s="19"/>
+      <c r="M115" s="42"/>
     </row>
     <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F116" s="12">
-        <v>4694</v>
-      </c>
-      <c r="G116" s="27">
-        <v>20</v>
-      </c>
-      <c r="H116" s="34">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I116" s="12">
-        <v>5897</v>
-      </c>
+      <c r="A116" s="9"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="12"/>
       <c r="J116" s="13">
-        <f t="shared" si="4"/>
-        <v>0.79969999999999997</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K116" s="14">
-        <f t="shared" si="5"/>
-        <v>5870</v>
-      </c>
-      <c r="L116" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M116" s="42" t="s">
-        <v>105</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L116" s="15"/>
+      <c r="M116" s="42"/>
     </row>
     <row r="117" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E117" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="F117" s="18">
-        <v>4581</v>
-      </c>
-      <c r="G117" s="27">
-        <v>15</v>
-      </c>
-      <c r="H117" s="34">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="I117" s="18">
-        <v>5740</v>
-      </c>
+      <c r="A117" s="9"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="18"/>
       <c r="J117" s="13">
-        <f t="shared" si="4"/>
-        <v>0.79800000000000004</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K117" s="14">
-        <f t="shared" si="5"/>
-        <v>5741</v>
-      </c>
-      <c r="L117" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M117" s="42" t="s">
-        <v>127</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L117" s="15"/>
+      <c r="M117" s="42"/>
     </row>
     <row r="118" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F118" s="12">
-        <v>5616</v>
-      </c>
-      <c r="G118" s="27">
-        <v>15</v>
-      </c>
-      <c r="H118" s="34">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="I118" s="12">
-        <v>7037</v>
-      </c>
+      <c r="A118" s="9"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="34"/>
+      <c r="I118" s="12"/>
       <c r="J118" s="13">
-        <f t="shared" ref="J118:J181" si="6">IFERROR(ROUND((ROUND(INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2)+ROUND(INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2))/2000,4),)</f>
-        <v>0.79800000000000004</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K118" s="14">
-        <f t="shared" ref="K118:K181" si="7">IFERROR(ROUND(F:F/J:J,0),)</f>
-        <v>7038</v>
-      </c>
-      <c r="L118" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M118" s="42" t="s">
-        <v>84</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L118" s="19"/>
+      <c r="M118" s="42"/>
     </row>
     <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="F119" s="12">
-        <v>653</v>
-      </c>
-      <c r="G119" s="27">
-        <v>20</v>
-      </c>
-      <c r="H119" s="34">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="I119" s="12">
-        <v>823</v>
-      </c>
+      <c r="A119" s="9"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="12"/>
       <c r="J119" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79779999999999995</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K119" s="14">
-        <f t="shared" si="7"/>
-        <v>819</v>
-      </c>
-      <c r="L119" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M119" s="42" t="s">
-        <v>71</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L119" s="15"/>
+      <c r="M119" s="42"/>
     </row>
     <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="F120" s="12">
-        <v>5203</v>
-      </c>
-      <c r="G120" s="27">
-        <v>15</v>
-      </c>
-      <c r="H120" s="34">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="I120" s="12">
-        <v>6520</v>
-      </c>
+      <c r="A120" s="9"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="34"/>
+      <c r="I120" s="12"/>
       <c r="J120" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79800000000000004</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K120" s="14">
-        <f t="shared" si="7"/>
-        <v>6520</v>
-      </c>
-      <c r="L120" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M120" s="42" t="s">
-        <v>91</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L120" s="19"/>
+      <c r="M120" s="42"/>
     </row>
     <row r="121" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="F121" s="12">
-        <v>6947</v>
-      </c>
-      <c r="G121" s="27">
-        <v>15</v>
-      </c>
-      <c r="H121" s="34">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="I121" s="12">
-        <v>8705</v>
-      </c>
+      <c r="A121" s="9"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="34"/>
+      <c r="I121" s="12"/>
       <c r="J121" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79800000000000004</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K121" s="14">
-        <f t="shared" si="7"/>
-        <v>8706</v>
-      </c>
-      <c r="L121" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M121" s="42" t="s">
-        <v>91</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L121" s="15"/>
+      <c r="M121" s="42"/>
     </row>
     <row r="122" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E122" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="F122" s="17">
-        <v>3110</v>
-      </c>
-      <c r="G122" s="27">
-        <v>13</v>
-      </c>
-      <c r="H122" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="I122" s="12">
-        <v>3888</v>
-      </c>
+      <c r="A122" s="9"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="12"/>
       <c r="J122" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79849999999999999</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K122" s="14">
-        <f t="shared" si="7"/>
-        <v>3895</v>
-      </c>
-      <c r="L122" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M122" s="42" t="s">
-        <v>109</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L122" s="15"/>
+      <c r="M122" s="42"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="F123" s="12">
-        <v>470</v>
-      </c>
-      <c r="G123" s="27">
-        <v>13</v>
-      </c>
-      <c r="H123" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="I123" s="12">
-        <v>588</v>
-      </c>
+      <c r="A123" s="9"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="34"/>
+      <c r="I123" s="12"/>
       <c r="J123" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79849999999999999</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K123" s="14">
-        <f t="shared" si="7"/>
-        <v>589</v>
-      </c>
-      <c r="L123" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="M123" s="46" t="s">
-        <v>32</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L123" s="15"/>
+      <c r="M123" s="42"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="F124" s="12">
-        <v>3600</v>
-      </c>
-      <c r="G124" s="27">
-        <v>13</v>
-      </c>
-      <c r="H124" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="I124" s="12">
-        <v>4500</v>
-      </c>
+      <c r="A124" s="9"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="34"/>
+      <c r="I124" s="12"/>
       <c r="J124" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79849999999999999</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K124" s="14">
-        <f t="shared" si="7"/>
-        <v>4508</v>
-      </c>
-      <c r="L124" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M124" s="42" t="s">
-        <v>248</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L124" s="15"/>
+      <c r="M124" s="42"/>
     </row>
     <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="F125" s="12">
-        <v>3237</v>
-      </c>
-      <c r="G125" s="27">
-        <v>13</v>
-      </c>
-      <c r="H125" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="I125" s="12">
-        <v>4046</v>
-      </c>
+      <c r="A125" s="9"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="34"/>
+      <c r="I125" s="12"/>
       <c r="J125" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79849999999999999</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K125" s="14">
-        <f t="shared" si="7"/>
-        <v>4054</v>
-      </c>
-      <c r="L125" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="M125" s="42" t="s">
-        <v>115</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L125" s="15"/>
+      <c r="M125" s="42"/>
     </row>
     <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B126" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="F126" s="12">
-        <v>800</v>
-      </c>
-      <c r="G126" s="27">
-        <v>13</v>
-      </c>
-      <c r="H126" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="I126" s="12">
-        <v>1000</v>
-      </c>
+      <c r="A126" s="9"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="34"/>
+      <c r="I126" s="12"/>
       <c r="J126" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79849999999999999</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K126" s="14">
-        <f t="shared" si="7"/>
-        <v>1002</v>
-      </c>
-      <c r="L126" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M126" s="42" t="s">
-        <v>126</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L126" s="15"/>
+      <c r="M126" s="42"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B127" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="F127" s="12">
-        <v>2400</v>
-      </c>
-      <c r="G127" s="27">
-        <v>13</v>
-      </c>
-      <c r="H127" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="I127" s="12">
-        <v>3000</v>
-      </c>
+      <c r="A127" s="9"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="12"/>
       <c r="J127" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79849999999999999</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K127" s="14">
-        <f t="shared" si="7"/>
-        <v>3006</v>
-      </c>
-      <c r="L127" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M127" s="42" t="s">
-        <v>335</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L127" s="15"/>
+      <c r="M127" s="42"/>
     </row>
     <row r="128" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B128" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="F128" s="12">
-        <v>4878</v>
-      </c>
-      <c r="G128" s="27">
-        <v>13</v>
-      </c>
-      <c r="H128" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="I128" s="12">
-        <v>6097</v>
-      </c>
+      <c r="A128" s="9"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="12"/>
       <c r="J128" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79849999999999999</v>
+        <f t="shared" ref="J128:J159" si="10">IFERROR(ROUND((ROUND(INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2)+ROUND(INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2))/2000,4),)</f>
+        <v>0</v>
       </c>
       <c r="K128" s="14">
-        <f t="shared" si="7"/>
-        <v>6109</v>
-      </c>
-      <c r="L128" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="M128" s="42" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" ref="K128:K159" si="11">IFERROR(ROUND(F:F/J:J,0),)</f>
+        <v>0</v>
+      </c>
+      <c r="L128" s="15"/>
+      <c r="M128" s="42"/>
     </row>
     <row r="129" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F129" s="12">
-        <v>5132</v>
-      </c>
-      <c r="G129" s="27">
-        <v>13</v>
-      </c>
-      <c r="H129" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="I129" s="12">
-        <v>6415</v>
-      </c>
+      <c r="A129" s="9"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="34"/>
+      <c r="I129" s="12"/>
       <c r="J129" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79849999999999999</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K129" s="14">
-        <f t="shared" si="7"/>
-        <v>6427</v>
-      </c>
-      <c r="L129" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M129" s="42" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L129" s="15"/>
+      <c r="M129" s="42"/>
     </row>
     <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="F130" s="12">
-        <v>269</v>
-      </c>
-      <c r="G130" s="27">
-        <v>13</v>
-      </c>
-      <c r="H130" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="I130" s="12">
-        <v>336</v>
-      </c>
+      <c r="A130" s="9"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="34"/>
+      <c r="I130" s="12"/>
       <c r="J130" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79849999999999999</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K130" s="14">
-        <f t="shared" si="7"/>
-        <v>337</v>
-      </c>
-      <c r="L130" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M130" s="46" t="s">
-        <v>32</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L130" s="15"/>
+      <c r="M130" s="42"/>
     </row>
     <row r="131" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F131" s="12">
-        <v>4179</v>
-      </c>
-      <c r="G131" s="27">
-        <v>18</v>
-      </c>
-      <c r="H131" s="34">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I131" s="12">
-        <v>5257</v>
-      </c>
+      <c r="A131" s="9"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="34"/>
+      <c r="I131" s="12"/>
       <c r="J131" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79730000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K131" s="14">
-        <f t="shared" si="7"/>
-        <v>5241</v>
-      </c>
-      <c r="L131" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M131" s="42" t="s">
-        <v>38</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L131" s="15"/>
+      <c r="M131" s="42"/>
     </row>
     <row r="132" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="F132" s="12">
-        <v>2122</v>
-      </c>
-      <c r="G132" s="27">
-        <v>18</v>
-      </c>
-      <c r="H132" s="34">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I132" s="12">
-        <v>2669</v>
-      </c>
+      <c r="A132" s="9"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="34"/>
+      <c r="I132" s="12"/>
       <c r="J132" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79730000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K132" s="14">
-        <f t="shared" si="7"/>
-        <v>2661</v>
-      </c>
-      <c r="L132" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M132" s="42" t="s">
-        <v>260</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L132" s="15"/>
+      <c r="M132" s="42"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="F133" s="12">
-        <v>4234</v>
-      </c>
-      <c r="G133" s="27">
-        <v>18</v>
-      </c>
-      <c r="H133" s="34">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I133" s="12">
-        <v>5326</v>
-      </c>
+      <c r="A133" s="9"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="12"/>
       <c r="J133" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79730000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K133" s="14">
-        <f t="shared" si="7"/>
-        <v>5310</v>
-      </c>
-      <c r="L133" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M133" s="42" t="s">
-        <v>351</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L133" s="15"/>
+      <c r="M133" s="42"/>
     </row>
     <row r="134" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B134" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="E134" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="F134" s="12">
-        <v>8030</v>
-      </c>
-      <c r="G134" s="27">
-        <v>18</v>
-      </c>
-      <c r="H134" s="34">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I134" s="12">
-        <v>10100</v>
-      </c>
+      <c r="A134" s="9"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="34"/>
+      <c r="I134" s="12"/>
       <c r="J134" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79730000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K134" s="14">
-        <f t="shared" si="7"/>
-        <v>10071</v>
-      </c>
-      <c r="L134" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="M134" s="42" t="s">
-        <v>91</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L134" s="15"/>
+      <c r="M134" s="42"/>
     </row>
     <row r="135" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F135" s="12">
-        <v>4651</v>
-      </c>
-      <c r="G135" s="27">
-        <v>18</v>
-      </c>
-      <c r="H135" s="34">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I135" s="12">
-        <v>5850</v>
-      </c>
+      <c r="A135" s="9"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="34"/>
+      <c r="I135" s="12"/>
       <c r="J135" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79730000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K135" s="14">
-        <f t="shared" si="7"/>
-        <v>5833</v>
-      </c>
-      <c r="L135" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M135" s="42" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L135" s="15"/>
+      <c r="M135" s="42"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B136" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="F136" s="12">
-        <v>1603</v>
-      </c>
-      <c r="G136" s="27">
-        <v>20</v>
-      </c>
-      <c r="H136" s="34">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I136" s="12">
-        <v>2016</v>
-      </c>
+      <c r="A136" s="9"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="34"/>
+      <c r="I136" s="12"/>
       <c r="J136" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79879999999999995</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K136" s="14">
-        <f t="shared" si="7"/>
-        <v>2007</v>
-      </c>
-      <c r="L136" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M136" s="42" t="s">
-        <v>260</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L136" s="15"/>
+      <c r="M136" s="42"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="9">
-        <v>44450</v>
-      </c>
-      <c r="B137" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="F137" s="12">
-        <v>11069</v>
-      </c>
-      <c r="G137" s="27">
-        <v>20</v>
-      </c>
-      <c r="H137" s="34">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I137" s="12">
-        <v>13923</v>
-      </c>
+      <c r="A137" s="9"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="12"/>
       <c r="J137" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79879999999999995</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K137" s="14">
-        <f t="shared" si="7"/>
-        <v>13857</v>
-      </c>
-      <c r="L137" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M137" s="42" t="s">
-        <v>142</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L137" s="15"/>
+      <c r="M137" s="42"/>
     </row>
     <row r="138" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E138" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="F138" s="12">
-        <v>724</v>
-      </c>
-      <c r="G138" s="27">
-        <v>14</v>
-      </c>
-      <c r="H138" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="I138" s="12">
-        <v>905</v>
-      </c>
+      <c r="A138" s="9"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="34"/>
+      <c r="I138" s="12"/>
       <c r="J138" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79930000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K138" s="14">
-        <f t="shared" si="7"/>
-        <v>906</v>
-      </c>
-      <c r="L138" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M138" s="42" t="s">
-        <v>260</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L138" s="15"/>
+      <c r="M138" s="42"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E139" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="F139" s="12">
-        <v>4960</v>
-      </c>
-      <c r="G139" s="27">
-        <v>14</v>
-      </c>
-      <c r="H139" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="I139" s="12">
-        <v>6200</v>
-      </c>
+      <c r="A139" s="9"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="12"/>
       <c r="J139" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79930000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K139" s="14">
-        <f t="shared" si="7"/>
-        <v>6205</v>
-      </c>
-      <c r="L139" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M139" s="42" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L139" s="15"/>
+      <c r="M139" s="42"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="F140" s="12">
-        <v>240</v>
-      </c>
-      <c r="G140" s="27">
-        <v>14</v>
-      </c>
-      <c r="H140" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="I140" s="12">
-        <v>300</v>
-      </c>
+      <c r="A140" s="9"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="34"/>
+      <c r="I140" s="12"/>
       <c r="J140" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79930000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K140" s="14">
-        <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="L140" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M140" s="46" t="s">
-        <v>368</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L140" s="15"/>
+      <c r="M140" s="42"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B141" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="F141" s="12">
-        <v>4665</v>
-      </c>
-      <c r="G141" s="27">
-        <v>15</v>
-      </c>
-      <c r="H141" s="34">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="I141" s="12">
-        <v>5838</v>
-      </c>
+      <c r="A141" s="9"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="34"/>
+      <c r="I141" s="12"/>
       <c r="J141" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79900000000000004</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K141" s="14">
-        <f t="shared" si="7"/>
-        <v>5839</v>
-      </c>
-      <c r="L141" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="M141" s="42" t="s">
-        <v>371</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L141" s="15"/>
+      <c r="M141" s="42"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B142" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="F142" s="12">
-        <v>1553</v>
-      </c>
-      <c r="G142" s="27">
-        <v>15</v>
-      </c>
-      <c r="H142" s="34">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="I142" s="12">
-        <v>1944</v>
-      </c>
+      <c r="A142" s="9"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="34"/>
+      <c r="I142" s="12"/>
       <c r="J142" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79900000000000004</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K142" s="14">
-        <f t="shared" si="7"/>
-        <v>1944</v>
-      </c>
-      <c r="L142" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M142" s="42" t="s">
-        <v>126</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L142" s="15"/>
+      <c r="M142" s="42"/>
     </row>
     <row r="143" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="F143" s="12">
-        <v>4274</v>
-      </c>
-      <c r="G143" s="27">
-        <v>15</v>
-      </c>
-      <c r="H143" s="34">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="I143" s="12">
-        <v>5349</v>
-      </c>
+      <c r="A143" s="9"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="34"/>
+      <c r="I143" s="12"/>
       <c r="J143" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79900000000000004</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K143" s="14">
-        <f t="shared" si="7"/>
-        <v>5349</v>
-      </c>
-      <c r="L143" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M143" s="42" t="s">
-        <v>232</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L143" s="15"/>
+      <c r="M143" s="42"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="E144" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="F144" s="12">
-        <v>5154</v>
-      </c>
-      <c r="G144" s="27">
-        <v>15</v>
-      </c>
-      <c r="H144" s="34">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="I144" s="12">
-        <v>6450</v>
-      </c>
+      <c r="A144" s="9"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="34"/>
+      <c r="I144" s="12"/>
       <c r="J144" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79900000000000004</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K144" s="14">
-        <f t="shared" si="7"/>
-        <v>6451</v>
-      </c>
-      <c r="L144" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M144" s="42" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L144" s="15"/>
+      <c r="M144" s="42"/>
     </row>
     <row r="145" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="E145" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="F145" s="12">
-        <v>2915</v>
-      </c>
-      <c r="G145" s="27">
-        <v>15</v>
-      </c>
-      <c r="H145" s="34">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="I145" s="12">
-        <v>3648</v>
-      </c>
+      <c r="A145" s="9"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="34"/>
+      <c r="I145" s="12"/>
       <c r="J145" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79900000000000004</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K145" s="14">
-        <f t="shared" si="7"/>
-        <v>3648</v>
-      </c>
-      <c r="L145" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M145" s="42" t="s">
-        <v>260</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L145" s="15"/>
+      <c r="M145" s="42"/>
     </row>
     <row r="146" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="E146" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="F146" s="17">
-        <v>8300</v>
-      </c>
-      <c r="G146" s="27">
-        <v>20</v>
-      </c>
-      <c r="H146" s="34">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I146" s="12">
-        <v>10440</v>
-      </c>
+      <c r="A146" s="9"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="34"/>
+      <c r="I146" s="12"/>
       <c r="J146" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79879999999999995</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K146" s="14">
-        <f t="shared" si="7"/>
-        <v>10391</v>
-      </c>
-      <c r="L146" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M146" s="42" t="s">
-        <v>387</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L146" s="15"/>
+      <c r="M146" s="42"/>
     </row>
     <row r="147" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E147" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="F147" s="17">
-        <v>2507</v>
-      </c>
-      <c r="G147" s="27">
-        <v>20</v>
-      </c>
-      <c r="H147" s="34">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="I147" s="12">
-        <v>3165</v>
-      </c>
+      <c r="A147" s="9"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="34"/>
+      <c r="I147" s="12"/>
       <c r="J147" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79579999999999995</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K147" s="14">
-        <f t="shared" si="7"/>
-        <v>3150</v>
-      </c>
-      <c r="L147" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M147" s="42" t="s">
-        <v>178</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L147" s="15"/>
+      <c r="M147" s="42"/>
     </row>
     <row r="148" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E148" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="F148" s="18">
-        <v>406</v>
-      </c>
-      <c r="G148" s="27">
-        <v>20</v>
-      </c>
-      <c r="H148" s="34">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="I148" s="12">
-        <v>513</v>
-      </c>
+      <c r="A148" s="9"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="34"/>
+      <c r="I148" s="12"/>
       <c r="J148" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79579999999999995</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K148" s="14">
-        <f t="shared" si="7"/>
-        <v>510</v>
-      </c>
-      <c r="L148" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M148" s="42" t="s">
-        <v>32</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L148" s="15"/>
+      <c r="M148" s="42"/>
     </row>
     <row r="149" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B149" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E149" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="F149" s="12">
-        <v>3247</v>
-      </c>
-      <c r="G149" s="27">
-        <v>25</v>
-      </c>
-      <c r="H149" s="34">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="I149" s="12">
-        <v>4100</v>
-      </c>
+      <c r="A149" s="9"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="34"/>
+      <c r="I149" s="12"/>
       <c r="J149" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79949999999999999</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K149" s="14">
-        <f t="shared" si="7"/>
-        <v>4061</v>
-      </c>
-      <c r="L149" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M149" s="42" t="s">
-        <v>180</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L149" s="15"/>
+      <c r="M149" s="42"/>
     </row>
     <row r="150" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="F150" s="12">
-        <v>2123</v>
-      </c>
-      <c r="G150" s="27">
-        <v>25</v>
-      </c>
-      <c r="H150" s="34">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="I150" s="12">
-        <v>2680</v>
-      </c>
+      <c r="A150" s="9"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="34"/>
+      <c r="I150" s="12"/>
       <c r="J150" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79949999999999999</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K150" s="14">
-        <f t="shared" si="7"/>
-        <v>2655</v>
-      </c>
-      <c r="L150" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M150" s="42" t="s">
-        <v>189</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L150" s="15"/>
+      <c r="M150" s="42"/>
     </row>
     <row r="151" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="F151" s="12">
-        <v>2859</v>
-      </c>
-      <c r="G151" s="27">
-        <v>25</v>
-      </c>
-      <c r="H151" s="34">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="I151" s="12">
-        <v>3610</v>
-      </c>
+      <c r="A151" s="9"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="34"/>
+      <c r="I151" s="12"/>
       <c r="J151" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79949999999999999</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K151" s="14">
-        <f t="shared" si="7"/>
-        <v>3576</v>
-      </c>
-      <c r="L151" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M151" s="42" t="s">
-        <v>260</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L151" s="15"/>
+      <c r="M151" s="42"/>
     </row>
     <row r="152" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E152" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="F152" s="18">
-        <v>4843</v>
-      </c>
-      <c r="G152" s="27">
-        <v>15</v>
-      </c>
-      <c r="H152" s="34">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="I152" s="12">
-        <v>6061</v>
-      </c>
+      <c r="A152" s="9"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="34"/>
+      <c r="I152" s="12"/>
       <c r="J152" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79900000000000004</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K152" s="14">
-        <f t="shared" si="7"/>
-        <v>6061</v>
-      </c>
-      <c r="L152" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="M152" s="42" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L152" s="15"/>
+      <c r="M152" s="42"/>
     </row>
     <row r="153" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="F153" s="12">
-        <v>6376</v>
-      </c>
-      <c r="G153" s="27">
-        <v>20</v>
-      </c>
-      <c r="H153" s="34">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="I153" s="12">
-        <v>8050</v>
-      </c>
+      <c r="A153" s="9"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="34"/>
+      <c r="I153" s="12"/>
       <c r="J153" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79579999999999995</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K153" s="14">
-        <f t="shared" si="7"/>
-        <v>8012</v>
-      </c>
-      <c r="L153" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M153" s="42" t="s">
-        <v>202</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L153" s="15"/>
+      <c r="M153" s="42"/>
     </row>
     <row r="154" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E154" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="F154" s="12">
-        <v>437</v>
-      </c>
-      <c r="G154" s="27">
-        <v>15</v>
-      </c>
-      <c r="H154" s="34">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="I154" s="12">
-        <v>547</v>
-      </c>
+      <c r="A154" s="9"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="34"/>
+      <c r="I154" s="12"/>
       <c r="J154" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79900000000000004</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K154" s="14">
-        <f t="shared" si="7"/>
-        <v>547</v>
-      </c>
-      <c r="L154" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M154" s="46" t="s">
-        <v>32</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L154" s="15"/>
+      <c r="M154" s="42"/>
     </row>
     <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E155" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="F155" s="12">
-        <v>7093</v>
-      </c>
-      <c r="G155" s="27">
-        <v>15</v>
-      </c>
-      <c r="H155" s="35">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="I155" s="12">
-        <v>8900</v>
-      </c>
+      <c r="A155" s="9"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="34"/>
+      <c r="I155" s="12"/>
       <c r="J155" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79700000000000004</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K155" s="14">
-        <f t="shared" si="7"/>
-        <v>8900</v>
-      </c>
-      <c r="L155" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M155" s="42" t="s">
-        <v>198</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L155" s="15"/>
+      <c r="M155" s="42"/>
     </row>
     <row r="156" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="9">
-        <v>44451</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="F156" s="17">
-        <v>1194</v>
-      </c>
-      <c r="G156" s="27">
-        <v>15</v>
-      </c>
-      <c r="H156" s="35">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="I156" s="12">
-        <v>1498</v>
-      </c>
+      <c r="A156" s="9"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="35"/>
+      <c r="I156" s="12"/>
       <c r="J156" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79700000000000004</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K156" s="14">
-        <f t="shared" si="7"/>
-        <v>1498</v>
-      </c>
-      <c r="L156" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M156" s="42" t="s">
-        <v>189</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L156" s="15"/>
+      <c r="M156" s="42"/>
     </row>
     <row r="157" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="F157" s="25">
-        <v>3276</v>
-      </c>
-      <c r="G157" s="27">
-        <v>12</v>
-      </c>
-      <c r="H157" s="34">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="I157" s="12">
-        <v>4100</v>
-      </c>
+      <c r="A157" s="9"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="35"/>
+      <c r="I157" s="12"/>
       <c r="J157" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79679999999999995</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K157" s="14">
-        <f t="shared" si="7"/>
-        <v>4111</v>
-      </c>
-      <c r="L157" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M157" s="42" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L157" s="15"/>
+      <c r="M157" s="42"/>
     </row>
     <row r="158" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E158" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="F158" s="12">
-        <v>1993</v>
-      </c>
-      <c r="G158" s="27">
-        <v>12</v>
-      </c>
-      <c r="H158" s="34">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="I158" s="12">
-        <v>2494</v>
-      </c>
+      <c r="A158" s="9"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="34"/>
+      <c r="I158" s="12"/>
       <c r="J158" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79679999999999995</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K158" s="14">
-        <f t="shared" si="7"/>
-        <v>2501</v>
-      </c>
-      <c r="L158" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M158" s="42" t="s">
-        <v>26</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L158" s="15"/>
+      <c r="M158" s="42"/>
     </row>
     <row r="159" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E159" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="F159" s="12">
-        <v>571</v>
-      </c>
-      <c r="G159" s="27">
-        <v>12</v>
-      </c>
-      <c r="H159" s="34">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="I159" s="12">
-        <v>715</v>
-      </c>
+      <c r="A159" s="9"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="34"/>
+      <c r="I159" s="12"/>
       <c r="J159" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79679999999999995</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K159" s="14">
-        <f t="shared" si="7"/>
-        <v>717</v>
-      </c>
-      <c r="L159" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M159" s="46" t="s">
-        <v>32</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L159" s="15"/>
+      <c r="M159" s="42"/>
     </row>
     <row r="160" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E160" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="F160" s="12">
-        <v>5144</v>
-      </c>
-      <c r="G160" s="27">
-        <v>16</v>
-      </c>
-      <c r="H160" s="34">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I160" s="12">
-        <v>6471</v>
-      </c>
+      <c r="A160" s="9"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="34"/>
+      <c r="I160" s="12"/>
       <c r="J160" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79579999999999995</v>
+        <f t="shared" ref="J160:J191" si="12">IFERROR(ROUND((ROUND(INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2)+ROUND(INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2))/2000,4),)</f>
+        <v>0</v>
       </c>
       <c r="K160" s="14">
-        <f t="shared" si="7"/>
-        <v>6464</v>
-      </c>
-      <c r="L160" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M160" s="42" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" ref="K160:K191" si="13">IFERROR(ROUND(F:F/J:J,0),)</f>
+        <v>0</v>
+      </c>
+      <c r="L160" s="15"/>
+      <c r="M160" s="42"/>
     </row>
     <row r="161" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B161" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E161" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="F161" s="12">
-        <v>4203</v>
-      </c>
-      <c r="G161" s="27">
-        <v>12</v>
-      </c>
-      <c r="H161" s="34">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="I161" s="12">
-        <v>4203</v>
-      </c>
+      <c r="A161" s="9"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="34"/>
+      <c r="I161" s="12"/>
       <c r="J161" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79679999999999995</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K161" s="14">
-        <f t="shared" si="7"/>
-        <v>5275</v>
-      </c>
-      <c r="L161" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M161" s="42" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L161" s="15"/>
+      <c r="M161" s="42"/>
     </row>
     <row r="162" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E162" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="F162" s="12">
-        <v>2692</v>
-      </c>
-      <c r="G162" s="27">
-        <v>12</v>
-      </c>
-      <c r="H162" s="34">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="I162" s="12">
-        <v>3369</v>
-      </c>
+      <c r="A162" s="9"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="34"/>
+      <c r="I162" s="12"/>
       <c r="J162" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79679999999999995</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K162" s="14">
-        <f t="shared" si="7"/>
-        <v>3379</v>
-      </c>
-      <c r="L162" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M162" s="42" t="s">
-        <v>217</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L162" s="15"/>
+      <c r="M162" s="42"/>
     </row>
     <row r="163" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="E163" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="F163" s="17">
-        <v>5724</v>
-      </c>
-      <c r="G163" s="27">
-        <v>16</v>
-      </c>
-      <c r="H163" s="35">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I163" s="12">
-        <v>7200</v>
-      </c>
+      <c r="A163" s="9"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="34"/>
+      <c r="I163" s="12"/>
       <c r="J163" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79579999999999995</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K163" s="14">
-        <f t="shared" si="7"/>
-        <v>7193</v>
-      </c>
-      <c r="L163" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M163" s="42" t="s">
-        <v>91</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L163" s="15"/>
+      <c r="M163" s="42"/>
     </row>
     <row r="164" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="E164" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="F164" s="12">
-        <v>1540</v>
-      </c>
-      <c r="G164" s="27">
-        <v>16</v>
-      </c>
-      <c r="H164" s="34">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I164" s="12">
-        <v>1937</v>
-      </c>
+      <c r="A164" s="9"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="35"/>
+      <c r="I164" s="12"/>
       <c r="J164" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79579999999999995</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K164" s="14">
-        <f t="shared" si="7"/>
-        <v>1935</v>
-      </c>
-      <c r="L164" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M164" s="42" t="s">
-        <v>126</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L164" s="15"/>
+      <c r="M164" s="42"/>
     </row>
     <row r="165" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C165" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E165" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="F165" s="17">
-        <v>2067</v>
-      </c>
-      <c r="G165" s="27">
-        <v>16</v>
-      </c>
-      <c r="H165" s="35">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I165" s="12">
-        <v>2600</v>
-      </c>
+      <c r="A165" s="9"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="27"/>
+      <c r="H165" s="34"/>
+      <c r="I165" s="12"/>
       <c r="J165" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79579999999999995</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K165" s="14">
-        <f t="shared" si="7"/>
-        <v>2597</v>
-      </c>
-      <c r="L165" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M165" s="42" t="s">
-        <v>71</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L165" s="15"/>
+      <c r="M165" s="42"/>
     </row>
     <row r="166" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="E166" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="F166" s="12">
-        <v>1651</v>
-      </c>
-      <c r="G166" s="27">
-        <v>20</v>
-      </c>
-      <c r="H166" s="34">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="I166" s="12">
-        <v>2084</v>
-      </c>
+      <c r="A166" s="9"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="27"/>
+      <c r="H166" s="35"/>
+      <c r="I166" s="12"/>
       <c r="J166" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79579999999999995</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K166" s="14">
-        <f t="shared" si="7"/>
-        <v>2075</v>
-      </c>
-      <c r="L166" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M166" s="42" t="s">
-        <v>228</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L166" s="15"/>
+      <c r="M166" s="42"/>
     </row>
     <row r="167" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D167" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E167" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="F167" s="12">
-        <v>2675</v>
-      </c>
-      <c r="G167" s="27">
-        <v>20</v>
-      </c>
-      <c r="H167" s="34">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="I167" s="12">
-        <v>3378</v>
-      </c>
+      <c r="A167" s="9"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="27"/>
+      <c r="H167" s="34"/>
+      <c r="I167" s="12"/>
       <c r="J167" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79579999999999995</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K167" s="14">
-        <f t="shared" si="7"/>
-        <v>3361</v>
-      </c>
-      <c r="L167" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M167" s="42" t="s">
-        <v>232</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L167" s="15"/>
+      <c r="M167" s="42"/>
     </row>
     <row r="168" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="E168" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="F168" s="12">
-        <v>2560</v>
-      </c>
-      <c r="G168" s="27">
-        <v>17</v>
-      </c>
-      <c r="H168" s="34">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I168" s="12">
-        <v>3220</v>
-      </c>
+      <c r="A168" s="9"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="34"/>
+      <c r="I168" s="12"/>
       <c r="J168" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79649999999999999</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K168" s="14">
-        <f t="shared" si="7"/>
-        <v>3214</v>
-      </c>
-      <c r="L168" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M168" s="42" t="s">
-        <v>260</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L168" s="15"/>
+      <c r="M168" s="42"/>
     </row>
     <row r="169" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E169" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="F169" s="12">
-        <v>2699</v>
-      </c>
-      <c r="G169" s="27">
-        <v>20</v>
-      </c>
-      <c r="H169" s="34">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="I169" s="12">
-        <v>3408</v>
-      </c>
+      <c r="A169" s="9"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="34"/>
+      <c r="I169" s="12"/>
       <c r="J169" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79579999999999995</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K169" s="14">
-        <f t="shared" si="7"/>
-        <v>3392</v>
-      </c>
-      <c r="L169" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M169" s="42" t="s">
-        <v>260</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L169" s="15"/>
+      <c r="M169" s="42"/>
     </row>
     <row r="170" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="F170" s="12">
-        <v>1462</v>
-      </c>
-      <c r="G170" s="27">
-        <v>17</v>
-      </c>
-      <c r="H170" s="34">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I170" s="12">
-        <v>1839</v>
-      </c>
+      <c r="A170" s="9"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="34"/>
+      <c r="I170" s="12"/>
       <c r="J170" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79649999999999999</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K170" s="14">
-        <f t="shared" si="7"/>
-        <v>1836</v>
-      </c>
-      <c r="L170" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M170" s="42" t="s">
-        <v>420</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L170" s="15"/>
+      <c r="M170" s="42"/>
     </row>
     <row r="171" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E171" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="F171" s="12">
-        <v>3960</v>
-      </c>
-      <c r="G171" s="27">
-        <v>20</v>
-      </c>
-      <c r="H171" s="34">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="I171" s="12">
-        <v>5000</v>
-      </c>
+      <c r="A171" s="9"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="34"/>
+      <c r="I171" s="12"/>
       <c r="J171" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79579999999999995</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K171" s="14">
-        <f t="shared" si="7"/>
-        <v>4976</v>
-      </c>
-      <c r="L171" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M171" s="42" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L171" s="15"/>
+      <c r="M171" s="42"/>
     </row>
     <row r="172" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D172" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E172" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="F172" s="12">
-        <v>930</v>
-      </c>
-      <c r="G172" s="27">
-        <v>17</v>
-      </c>
-      <c r="H172" s="34">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I172" s="12">
-        <v>1170</v>
-      </c>
+      <c r="A172" s="9"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="27"/>
+      <c r="H172" s="34"/>
+      <c r="I172" s="12"/>
       <c r="J172" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79649999999999999</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K172" s="14">
-        <f t="shared" si="7"/>
-        <v>1168</v>
-      </c>
-      <c r="L172" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M172" s="46" t="s">
-        <v>32</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L172" s="15"/>
+      <c r="M172" s="42"/>
     </row>
     <row r="173" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="E173" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="F173" s="12">
-        <v>1255</v>
-      </c>
-      <c r="G173" s="27">
-        <v>17</v>
-      </c>
-      <c r="H173" s="34">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I173" s="12">
-        <v>1579</v>
-      </c>
+      <c r="A173" s="9"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="34"/>
+      <c r="I173" s="12"/>
       <c r="J173" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79649999999999999</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K173" s="14">
-        <f t="shared" si="7"/>
-        <v>1576</v>
-      </c>
-      <c r="L173" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M173" s="42" t="s">
-        <v>260</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L173" s="15"/>
+      <c r="M173" s="42"/>
     </row>
     <row r="174" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="E174" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="F174" s="12">
-        <v>3896</v>
-      </c>
-      <c r="G174" s="27">
-        <v>17</v>
-      </c>
-      <c r="H174" s="34">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I174" s="12">
-        <v>4901</v>
-      </c>
+      <c r="A174" s="9"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="27"/>
+      <c r="H174" s="34"/>
+      <c r="I174" s="12"/>
       <c r="J174" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79649999999999999</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K174" s="14">
-        <f t="shared" si="7"/>
-        <v>4891</v>
-      </c>
-      <c r="L174" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M174" s="42" t="s">
-        <v>84</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L174" s="15"/>
+      <c r="M174" s="42"/>
     </row>
     <row r="175" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="E175" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="F175" s="12">
-        <v>2372</v>
-      </c>
-      <c r="G175" s="27">
-        <v>18</v>
-      </c>
-      <c r="H175" s="34">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="I175" s="12">
-        <v>2988</v>
-      </c>
+      <c r="A175" s="9"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="27"/>
+      <c r="H175" s="34"/>
+      <c r="I175" s="12"/>
       <c r="J175" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79630000000000001</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K175" s="14">
-        <f t="shared" si="7"/>
-        <v>2979</v>
-      </c>
-      <c r="L175" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M175" s="42" t="s">
-        <v>105</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L175" s="15"/>
+      <c r="M175" s="42"/>
     </row>
     <row r="176" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B176" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D176" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="E176" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="F176" s="12">
-        <v>3854</v>
-      </c>
-      <c r="G176" s="27">
-        <v>18</v>
-      </c>
-      <c r="H176" s="34">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="I176" s="12">
-        <v>4854</v>
-      </c>
+      <c r="A176" s="9"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="34"/>
+      <c r="I176" s="12"/>
       <c r="J176" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79630000000000001</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K176" s="14">
-        <f t="shared" si="7"/>
-        <v>4840</v>
-      </c>
-      <c r="L176" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M176" s="42" t="s">
-        <v>67</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L176" s="15"/>
+      <c r="M176" s="42"/>
     </row>
     <row r="177" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D177" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="E177" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="F177" s="12">
-        <v>3431</v>
-      </c>
-      <c r="G177" s="27">
-        <v>15</v>
-      </c>
-      <c r="H177" s="34">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I177" s="12">
-        <v>4310</v>
-      </c>
+      <c r="A177" s="9"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="34"/>
+      <c r="I177" s="12"/>
       <c r="J177" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79600000000000004</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K177" s="14">
-        <f t="shared" si="7"/>
-        <v>4310</v>
-      </c>
-      <c r="L177" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M177" s="42" t="s">
-        <v>433</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L177" s="15"/>
+      <c r="M177" s="42"/>
     </row>
     <row r="178" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="9">
-        <v>44453</v>
-      </c>
-      <c r="B178" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E178" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="F178" s="25">
-        <v>2608</v>
-      </c>
-      <c r="G178" s="27">
-        <v>15</v>
-      </c>
-      <c r="H178" s="34">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I178" s="12">
-        <v>3280</v>
-      </c>
+      <c r="A178" s="9"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="34"/>
+      <c r="I178" s="12"/>
       <c r="J178" s="13">
-        <f t="shared" ref="J178" si="8">IFERROR(ROUND((ROUND(INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2)+ROUND(INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2))/2000,4),)</f>
-        <v>0.79500000000000004</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K178" s="14">
-        <f t="shared" ref="K178" si="9">IFERROR(ROUND(F:F/J:J,0),)</f>
-        <v>3281</v>
-      </c>
-      <c r="L178" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M178" s="42" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L178" s="15"/>
+      <c r="M178" s="42"/>
     </row>
     <row r="179" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="9">
-        <v>44453</v>
-      </c>
-      <c r="B179" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D179" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="E179" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="F179" s="12">
-        <v>2169</v>
-      </c>
-      <c r="G179" s="27">
-        <v>15</v>
-      </c>
-      <c r="H179" s="34">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I179" s="12">
-        <v>2725</v>
-      </c>
+      <c r="A179" s="9"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="24"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="34"/>
+      <c r="I179" s="12"/>
       <c r="J179" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79600000000000004</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K179" s="14">
-        <f t="shared" si="7"/>
-        <v>2725</v>
-      </c>
-      <c r="L179" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M179" s="42" t="s">
-        <v>260</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L179" s="15"/>
+      <c r="M179" s="42"/>
     </row>
     <row r="180" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="9">
-        <v>44453</v>
-      </c>
-      <c r="B180" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D180" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E180" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="F180" s="12">
-        <v>2768</v>
-      </c>
-      <c r="G180" s="27">
-        <v>15</v>
-      </c>
-      <c r="H180" s="34">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I180" s="12">
-        <v>3477</v>
-      </c>
+      <c r="A180" s="9"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="24"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="34"/>
+      <c r="I180" s="12"/>
       <c r="J180" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79600000000000004</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K180" s="14">
-        <f t="shared" si="7"/>
-        <v>3477</v>
-      </c>
-      <c r="L180" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M180" s="42" t="s">
-        <v>109</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L180" s="15"/>
+      <c r="M180" s="42"/>
     </row>
     <row r="181" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="9">
-        <v>44453</v>
-      </c>
-      <c r="B181" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E181" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="F181" s="12">
-        <v>6197</v>
-      </c>
-      <c r="G181" s="27">
-        <v>15</v>
-      </c>
-      <c r="H181" s="34">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I181" s="12">
-        <v>7785</v>
-      </c>
+      <c r="A181" s="9"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="34"/>
+      <c r="I181" s="12"/>
       <c r="J181" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79600000000000004</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K181" s="14">
-        <f t="shared" si="7"/>
-        <v>7785</v>
-      </c>
-      <c r="L181" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M181" s="42" t="s">
-        <v>387</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L181" s="15"/>
+      <c r="M181" s="42"/>
     </row>
     <row r="182" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="9">
-        <v>44453</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D182" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E182" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="F182" s="12">
-        <v>7212</v>
-      </c>
-      <c r="G182" s="27">
-        <v>15</v>
-      </c>
-      <c r="H182" s="34">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I182" s="12">
-        <v>9060</v>
-      </c>
+      <c r="A182" s="9"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="34"/>
+      <c r="I182" s="12"/>
       <c r="J182" s="13">
-        <f t="shared" ref="J182:J245" si="10">IFERROR(ROUND((ROUND(INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2)+ROUND(INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2))/2000,4),)</f>
-        <v>0.79600000000000004</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K182" s="14">
-        <f t="shared" ref="K182:K245" si="11">IFERROR(ROUND(F:F/J:J,0),)</f>
-        <v>9060</v>
-      </c>
-      <c r="L182" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M182" s="42" t="s">
-        <v>91</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L182" s="15"/>
+      <c r="M182" s="42"/>
     </row>
     <row r="183" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="9">
-        <v>44453</v>
-      </c>
-      <c r="B183" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E183" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="F183" s="12">
-        <v>5388</v>
-      </c>
-      <c r="G183" s="26">
-        <v>15</v>
-      </c>
-      <c r="H183" s="20">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I183" s="12">
-        <v>6769</v>
-      </c>
+      <c r="A183" s="9"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="27"/>
+      <c r="H183" s="34"/>
+      <c r="I183" s="12"/>
       <c r="J183" s="13">
-        <f t="shared" si="10"/>
-        <v>0.79600000000000004</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K183" s="14">
-        <f t="shared" si="11"/>
-        <v>6769</v>
-      </c>
-      <c r="L183" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M183" s="42" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L183" s="15"/>
+      <c r="M183" s="42"/>
     </row>
     <row r="184" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="9">
-        <v>44453</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D184" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="E184" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="F184" s="12">
-        <v>4911</v>
-      </c>
-      <c r="G184" s="27">
-        <v>15</v>
-      </c>
-      <c r="H184" s="34">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I184" s="12">
-        <v>6170</v>
-      </c>
+      <c r="A184" s="9"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="26"/>
+      <c r="H184" s="20"/>
+      <c r="I184" s="12"/>
       <c r="J184" s="13">
-        <f t="shared" si="10"/>
-        <v>0.79600000000000004</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K184" s="14">
-        <f t="shared" si="11"/>
-        <v>6170</v>
-      </c>
-      <c r="L184" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M184" s="42" t="s">
-        <v>88</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L184" s="19"/>
+      <c r="M184" s="42"/>
     </row>
     <row r="185" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="9">
-        <v>44453</v>
-      </c>
-      <c r="B185" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="C185" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="D185" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E185" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="F185" s="19">
-        <v>641</v>
-      </c>
-      <c r="G185" s="26">
-        <v>15</v>
-      </c>
-      <c r="H185" s="20">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I185" s="19">
-        <v>805</v>
-      </c>
+      <c r="A185" s="9"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="24"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="27"/>
+      <c r="H185" s="34"/>
+      <c r="I185" s="12"/>
       <c r="J185" s="13">
-        <f t="shared" si="10"/>
-        <v>0.79600000000000004</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K185" s="14">
-        <f t="shared" si="11"/>
-        <v>805</v>
-      </c>
-      <c r="L185" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M185" s="42" t="s">
-        <v>444</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L185" s="15"/>
+      <c r="M185" s="42"/>
     </row>
     <row r="186" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="9">
-        <v>44453</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D186" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="E186" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="F186" s="12">
-        <v>3496</v>
-      </c>
-      <c r="G186" s="27">
-        <v>15</v>
-      </c>
-      <c r="H186" s="34">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I186" s="12">
-        <v>4392</v>
-      </c>
+      <c r="A186" s="9"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="26"/>
+      <c r="H186" s="20"/>
+      <c r="I186" s="19"/>
       <c r="J186" s="13">
-        <f t="shared" si="10"/>
-        <v>0.79600000000000004</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K186" s="14">
-        <f t="shared" si="11"/>
-        <v>4392</v>
-      </c>
-      <c r="L186" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M186" s="42" t="s">
-        <v>38</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L186" s="19"/>
+      <c r="M186" s="42"/>
     </row>
     <row r="187" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="9">
-        <v>44453</v>
-      </c>
-      <c r="B187" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D187" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E187" s="24" t="s">
-        <v>455</v>
-      </c>
-      <c r="F187" s="12">
-        <v>1704</v>
-      </c>
-      <c r="G187" s="27">
-        <v>15</v>
-      </c>
-      <c r="H187" s="34">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I187" s="12">
-        <v>2141</v>
-      </c>
+      <c r="A187" s="9"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="34"/>
+      <c r="I187" s="12"/>
       <c r="J187" s="13">
-        <f t="shared" si="10"/>
-        <v>0.79600000000000004</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K187" s="14">
-        <f t="shared" si="11"/>
-        <v>2141</v>
-      </c>
-      <c r="L187" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M187" s="42" t="s">
-        <v>260</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L187" s="15"/>
+      <c r="M187" s="42"/>
     </row>
     <row r="188" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="9">
-        <v>44453</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D188" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="E188" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="F188" s="12">
-        <v>4041</v>
-      </c>
-      <c r="G188" s="27">
-        <v>20</v>
-      </c>
-      <c r="H188" s="34">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="I188" s="12">
-        <v>5102</v>
-      </c>
+      <c r="A188" s="9"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="24"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="34"/>
+      <c r="I188" s="12"/>
       <c r="J188" s="13">
-        <f t="shared" si="10"/>
-        <v>0.79579999999999995</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K188" s="14">
-        <f t="shared" si="11"/>
-        <v>5078</v>
-      </c>
-      <c r="L188" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M188" s="42" t="s">
-        <v>248</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L188" s="15"/>
+      <c r="M188" s="42"/>
     </row>
     <row r="189" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="9">
-        <v>44454</v>
-      </c>
-      <c r="B189" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D189" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E189" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="F189" s="12">
-        <v>5067</v>
-      </c>
-      <c r="G189" s="27">
-        <v>11</v>
-      </c>
-      <c r="H189" s="34">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="I189" s="12">
-        <v>6326</v>
-      </c>
+      <c r="A189" s="9"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="27"/>
+      <c r="H189" s="34"/>
+      <c r="I189" s="12"/>
       <c r="J189" s="13">
-        <f t="shared" si="10"/>
-        <v>0.79800000000000004</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K189" s="14">
-        <f t="shared" si="11"/>
-        <v>6350</v>
-      </c>
-      <c r="L189" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="M189" s="42" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L189" s="15"/>
+      <c r="M189" s="42"/>
     </row>
     <row r="190" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="9">
-        <v>44454</v>
-      </c>
-      <c r="B190" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D190" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E190" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="F190" s="19">
-        <v>5957</v>
-      </c>
-      <c r="G190" s="27">
-        <v>11</v>
-      </c>
-      <c r="H190" s="34">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="I190" s="12">
-        <v>7437</v>
-      </c>
+      <c r="A190" s="9"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="34"/>
+      <c r="I190" s="12"/>
       <c r="J190" s="13">
-        <f t="shared" si="10"/>
-        <v>0.79800000000000004</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K190" s="14">
-        <f t="shared" si="11"/>
-        <v>7465</v>
-      </c>
-      <c r="L190" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M190" s="42" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L190" s="15"/>
+      <c r="M190" s="42"/>
     </row>
     <row r="191" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="9">
-        <v>44455</v>
-      </c>
-      <c r="B191" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D191" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E191" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="F191" s="12">
-        <v>495</v>
-      </c>
-      <c r="G191" s="27">
-        <v>20</v>
-      </c>
-      <c r="H191" s="34">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="I191" s="12">
-        <v>623</v>
-      </c>
+      <c r="A191" s="9"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="34"/>
+      <c r="I191" s="12"/>
       <c r="J191" s="13">
-        <f t="shared" si="10"/>
-        <v>0.79779999999999995</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K191" s="14">
-        <f t="shared" si="11"/>
-        <v>620</v>
-      </c>
-      <c r="L191" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M191" s="53" t="s">
-        <v>32</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L191" s="15"/>
+      <c r="M191" s="42"/>
     </row>
     <row r="192" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
       <c r="B192" s="10"/>
-      <c r="C192" s="10"/>
+      <c r="C192" s="11"/>
       <c r="D192" s="11"/>
-      <c r="E192" s="10"/>
+      <c r="E192" s="11"/>
       <c r="F192" s="12"/>
       <c r="G192" s="27"/>
       <c r="H192" s="34"/>
       <c r="I192" s="12"/>
       <c r="J192" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J192:J223" si="14">IFERROR(ROUND((ROUND(INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2)+ROUND(INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2))/2000,4),)</f>
         <v>0</v>
       </c>
       <c r="K192" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="K192:K223" si="15">IFERROR(ROUND(F:F/J:J,0),)</f>
         <v>0</v>
       </c>
       <c r="L192" s="15"/>
@@ -19107,18 +16632,18 @@
       <c r="A193" s="9"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
-      <c r="D193" s="10"/>
+      <c r="D193" s="11"/>
       <c r="E193" s="10"/>
       <c r="F193" s="12"/>
       <c r="G193" s="27"/>
       <c r="H193" s="34"/>
       <c r="I193" s="12"/>
       <c r="J193" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K193" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L193" s="15"/>
@@ -19129,17 +16654,17 @@
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
-      <c r="E194" s="21"/>
-      <c r="F194" s="19"/>
-      <c r="G194" s="26"/>
-      <c r="H194" s="20"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="34"/>
       <c r="I194" s="12"/>
       <c r="J194" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K194" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L194" s="15"/>
@@ -19156,11 +16681,11 @@
       <c r="H195" s="20"/>
       <c r="I195" s="12"/>
       <c r="J195" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K195" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L195" s="15"/>
@@ -19170,18 +16695,18 @@
       <c r="A196" s="9"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
-      <c r="D196" s="11"/>
+      <c r="D196" s="10"/>
       <c r="E196" s="21"/>
       <c r="F196" s="19"/>
       <c r="G196" s="26"/>
       <c r="H196" s="20"/>
       <c r="I196" s="12"/>
       <c r="J196" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K196" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L196" s="15"/>
@@ -19190,19 +16715,19 @@
     <row r="197" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
       <c r="B197" s="10"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="10"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="11"/>
       <c r="E197" s="21"/>
       <c r="F197" s="19"/>
       <c r="G197" s="26"/>
       <c r="H197" s="20"/>
       <c r="I197" s="12"/>
       <c r="J197" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K197" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L197" s="15"/>
@@ -19211,19 +16736,19 @@
     <row r="198" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="10"/>
-      <c r="C198" s="10"/>
-      <c r="D198" s="11"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="12"/>
-      <c r="G198" s="27"/>
-      <c r="H198" s="34"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="19"/>
+      <c r="G198" s="26"/>
+      <c r="H198" s="20"/>
       <c r="I198" s="12"/>
       <c r="J198" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K198" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L198" s="15"/>
@@ -19233,18 +16758,18 @@
       <c r="A199" s="9"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
-      <c r="D199" s="10"/>
+      <c r="D199" s="11"/>
       <c r="E199" s="10"/>
       <c r="F199" s="12"/>
       <c r="G199" s="27"/>
       <c r="H199" s="34"/>
       <c r="I199" s="12"/>
       <c r="J199" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K199" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L199" s="15"/>
@@ -19254,18 +16779,18 @@
       <c r="A200" s="9"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
-      <c r="D200" s="11"/>
+      <c r="D200" s="10"/>
       <c r="E200" s="10"/>
       <c r="F200" s="12"/>
       <c r="G200" s="27"/>
       <c r="H200" s="34"/>
       <c r="I200" s="12"/>
       <c r="J200" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K200" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L200" s="15"/>
@@ -19277,16 +16802,16 @@
       <c r="C201" s="10"/>
       <c r="D201" s="11"/>
       <c r="E201" s="10"/>
-      <c r="F201" s="19"/>
+      <c r="F201" s="12"/>
       <c r="G201" s="27"/>
       <c r="H201" s="34"/>
       <c r="I201" s="12"/>
       <c r="J201" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K201" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L201" s="15"/>
@@ -19294,20 +16819,20 @@
     </row>
     <row r="202" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
-      <c r="B202" s="19"/>
+      <c r="B202" s="10"/>
       <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="21"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="10"/>
       <c r="F202" s="19"/>
       <c r="G202" s="27"/>
       <c r="H202" s="34"/>
       <c r="I202" s="12"/>
       <c r="J202" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K202" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L202" s="15"/>
@@ -19315,8 +16840,8 @@
     </row>
     <row r="203" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
-      <c r="B203" s="10"/>
-      <c r="C203" s="11"/>
+      <c r="B203" s="19"/>
+      <c r="C203" s="10"/>
       <c r="D203" s="10"/>
       <c r="E203" s="21"/>
       <c r="F203" s="19"/>
@@ -19324,11 +16849,11 @@
       <c r="H203" s="34"/>
       <c r="I203" s="12"/>
       <c r="J203" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K203" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L203" s="15"/>
@@ -19341,15 +16866,15 @@
       <c r="D204" s="10"/>
       <c r="E204" s="21"/>
       <c r="F204" s="19"/>
-      <c r="G204" s="26"/>
-      <c r="H204" s="20"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="34"/>
       <c r="I204" s="12"/>
       <c r="J204" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K204" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L204" s="15"/>
@@ -19361,16 +16886,16 @@
       <c r="C205" s="11"/>
       <c r="D205" s="10"/>
       <c r="E205" s="21"/>
-      <c r="F205" s="12"/>
+      <c r="F205" s="19"/>
       <c r="G205" s="26"/>
       <c r="H205" s="20"/>
       <c r="I205" s="12"/>
       <c r="J205" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K205" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L205" s="15"/>
@@ -19378,20 +16903,20 @@
     </row>
     <row r="206" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="9"/>
-      <c r="B206" s="21"/>
+      <c r="B206" s="10"/>
       <c r="C206" s="11"/>
-      <c r="D206" s="19"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="19"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="12"/>
       <c r="G206" s="26"/>
       <c r="H206" s="20"/>
       <c r="I206" s="12"/>
       <c r="J206" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K206" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L206" s="15"/>
@@ -19400,19 +16925,19 @@
     <row r="207" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="9"/>
       <c r="B207" s="21"/>
-      <c r="C207" s="19"/>
+      <c r="C207" s="11"/>
       <c r="D207" s="19"/>
-      <c r="E207" s="21"/>
+      <c r="E207" s="10"/>
       <c r="F207" s="19"/>
       <c r="G207" s="26"/>
       <c r="H207" s="20"/>
       <c r="I207" s="12"/>
       <c r="J207" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K207" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L207" s="15"/>
@@ -19429,11 +16954,11 @@
       <c r="H208" s="20"/>
       <c r="I208" s="12"/>
       <c r="J208" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K208" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L208" s="15"/>
@@ -19441,8 +16966,8 @@
     </row>
     <row r="209" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
-      <c r="B209" s="10"/>
-      <c r="C209" s="11"/>
+      <c r="B209" s="21"/>
+      <c r="C209" s="19"/>
       <c r="D209" s="19"/>
       <c r="E209" s="21"/>
       <c r="F209" s="19"/>
@@ -19450,11 +16975,11 @@
       <c r="H209" s="20"/>
       <c r="I209" s="12"/>
       <c r="J209" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K209" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L209" s="15"/>
@@ -19464,39 +16989,39 @@
       <c r="A210" s="9"/>
       <c r="B210" s="10"/>
       <c r="C210" s="11"/>
-      <c r="D210" s="10"/>
+      <c r="D210" s="19"/>
       <c r="E210" s="21"/>
       <c r="F210" s="19"/>
       <c r="G210" s="26"/>
       <c r="H210" s="20"/>
       <c r="I210" s="12"/>
       <c r="J210" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K210" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L210" s="15"/>
-      <c r="M210" s="41"/>
+      <c r="M210" s="42"/>
     </row>
     <row r="211" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
-      <c r="B211" s="11"/>
+      <c r="B211" s="10"/>
       <c r="C211" s="11"/>
-      <c r="D211" s="11"/>
-      <c r="E211" s="10"/>
-      <c r="F211" s="12"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="21"/>
+      <c r="F211" s="19"/>
       <c r="G211" s="26"/>
       <c r="H211" s="20"/>
       <c r="I211" s="12"/>
       <c r="J211" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K211" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L211" s="15"/>
@@ -19504,41 +17029,41 @@
     </row>
     <row r="212" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
-      <c r="B212" s="19"/>
-      <c r="C212" s="19"/>
-      <c r="D212" s="19"/>
-      <c r="E212" s="21"/>
-      <c r="F212" s="19"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="12"/>
       <c r="G212" s="26"/>
       <c r="H212" s="20"/>
       <c r="I212" s="12"/>
       <c r="J212" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K212" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L212" s="15"/>
-      <c r="M212" s="42"/>
+      <c r="M212" s="41"/>
     </row>
     <row r="213" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
-      <c r="B213" s="10"/>
-      <c r="C213" s="10"/>
-      <c r="D213" s="11"/>
+      <c r="B213" s="19"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="19"/>
       <c r="E213" s="21"/>
       <c r="F213" s="19"/>
       <c r="G213" s="26"/>
       <c r="H213" s="20"/>
       <c r="I213" s="12"/>
       <c r="J213" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K213" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L213" s="15"/>
@@ -19546,20 +17071,20 @@
     </row>
     <row r="214" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
-      <c r="B214" s="19"/>
+      <c r="B214" s="10"/>
       <c r="C214" s="10"/>
-      <c r="D214" s="10"/>
+      <c r="D214" s="11"/>
       <c r="E214" s="21"/>
       <c r="F214" s="19"/>
       <c r="G214" s="26"/>
       <c r="H214" s="20"/>
       <c r="I214" s="12"/>
       <c r="J214" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K214" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L214" s="15"/>
@@ -19567,20 +17092,20 @@
     </row>
     <row r="215" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
-      <c r="B215" s="10"/>
+      <c r="B215" s="19"/>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
       <c r="E215" s="21"/>
       <c r="F215" s="19"/>
-      <c r="G215" s="31"/>
+      <c r="G215" s="26"/>
       <c r="H215" s="20"/>
       <c r="I215" s="12"/>
       <c r="J215" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K215" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L215" s="15"/>
@@ -19588,20 +17113,20 @@
     </row>
     <row r="216" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
-      <c r="B216" s="21"/>
+      <c r="B216" s="10"/>
       <c r="C216" s="10"/>
       <c r="D216" s="10"/>
-      <c r="E216" s="19"/>
+      <c r="E216" s="21"/>
       <c r="F216" s="19"/>
-      <c r="G216" s="27"/>
-      <c r="H216" s="34"/>
+      <c r="G216" s="31"/>
+      <c r="H216" s="20"/>
       <c r="I216" s="12"/>
       <c r="J216" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K216" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L216" s="15"/>
@@ -19609,41 +17134,41 @@
     </row>
     <row r="217" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="9"/>
-      <c r="B217" s="10"/>
-      <c r="C217" s="19"/>
-      <c r="D217" s="19"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="12"/>
+      <c r="B217" s="21"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="19"/>
+      <c r="F217" s="19"/>
       <c r="G217" s="27"/>
       <c r="H217" s="34"/>
       <c r="I217" s="12"/>
       <c r="J217" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K217" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L217" s="10"/>
+      <c r="L217" s="15"/>
       <c r="M217" s="42"/>
     </row>
     <row r="218" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="9"/>
       <c r="B218" s="10"/>
       <c r="C218" s="19"/>
-      <c r="D218" s="10"/>
+      <c r="D218" s="19"/>
       <c r="E218" s="10"/>
-      <c r="F218" s="19"/>
-      <c r="G218" s="26"/>
-      <c r="H218" s="20"/>
+      <c r="F218" s="12"/>
+      <c r="G218" s="27"/>
+      <c r="H218" s="34"/>
       <c r="I218" s="12"/>
       <c r="J218" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K218" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L218" s="10"/>
@@ -19652,40 +17177,40 @@
     <row r="219" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="9"/>
       <c r="B219" s="10"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="11"/>
-      <c r="E219" s="21"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
       <c r="F219" s="19"/>
       <c r="G219" s="26"/>
       <c r="H219" s="20"/>
       <c r="I219" s="12"/>
       <c r="J219" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K219" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L219" s="15"/>
+      <c r="L219" s="10"/>
       <c r="M219" s="42"/>
     </row>
     <row r="220" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="9"/>
-      <c r="B220" s="19"/>
+      <c r="B220" s="10"/>
       <c r="C220" s="10"/>
-      <c r="D220" s="10"/>
+      <c r="D220" s="11"/>
       <c r="E220" s="21"/>
       <c r="F220" s="19"/>
       <c r="G220" s="26"/>
       <c r="H220" s="20"/>
       <c r="I220" s="12"/>
       <c r="J220" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K220" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L220" s="15"/>
@@ -19693,20 +17218,20 @@
     </row>
     <row r="221" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="9"/>
-      <c r="B221" s="21"/>
+      <c r="B221" s="19"/>
       <c r="C221" s="10"/>
       <c r="D221" s="10"/>
-      <c r="E221" s="19"/>
+      <c r="E221" s="21"/>
       <c r="F221" s="19"/>
-      <c r="G221" s="27"/>
-      <c r="H221" s="34"/>
+      <c r="G221" s="26"/>
+      <c r="H221" s="20"/>
       <c r="I221" s="12"/>
       <c r="J221" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K221" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L221" s="15"/>
@@ -19714,20 +17239,20 @@
     </row>
     <row r="222" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="9"/>
-      <c r="B222" s="10"/>
-      <c r="C222" s="11"/>
-      <c r="D222" s="11"/>
-      <c r="E222" s="10"/>
+      <c r="B222" s="21"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="19"/>
       <c r="F222" s="19"/>
-      <c r="G222" s="26"/>
-      <c r="H222" s="20"/>
-      <c r="I222" s="19"/>
+      <c r="G222" s="27"/>
+      <c r="H222" s="34"/>
+      <c r="I222" s="12"/>
       <c r="J222" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K222" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L222" s="15"/>
@@ -19735,20 +17260,20 @@
     </row>
     <row r="223" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="9"/>
-      <c r="B223" s="11"/>
+      <c r="B223" s="10"/>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
       <c r="E223" s="10"/>
       <c r="F223" s="19"/>
       <c r="G223" s="26"/>
-      <c r="H223" s="35"/>
+      <c r="H223" s="20"/>
       <c r="I223" s="19"/>
       <c r="J223" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K223" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L223" s="15"/>
@@ -19756,20 +17281,20 @@
     </row>
     <row r="224" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
-      <c r="B224" s="21"/>
-      <c r="C224" s="10"/>
-      <c r="D224" s="10"/>
-      <c r="E224" s="21"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="10"/>
       <c r="F224" s="19"/>
       <c r="G224" s="26"/>
       <c r="H224" s="35"/>
       <c r="I224" s="19"/>
       <c r="J224" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J224:J255" si="16">IFERROR(ROUND((ROUND(INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2)+ROUND(INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2))/2000,4),)</f>
         <v>0</v>
       </c>
       <c r="K224" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="K224:K255" si="17">IFERROR(ROUND(F:F/J:J,0),)</f>
         <v>0</v>
       </c>
       <c r="L224" s="15"/>
@@ -19777,20 +17302,20 @@
     </row>
     <row r="225" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="9"/>
-      <c r="B225" s="19"/>
+      <c r="B225" s="21"/>
       <c r="C225" s="10"/>
       <c r="D225" s="10"/>
       <c r="E225" s="21"/>
       <c r="F225" s="19"/>
       <c r="G225" s="26"/>
-      <c r="H225" s="20"/>
+      <c r="H225" s="35"/>
       <c r="I225" s="19"/>
       <c r="J225" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K225" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L225" s="15"/>
@@ -19798,20 +17323,20 @@
     </row>
     <row r="226" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="9"/>
-      <c r="B226" s="21"/>
+      <c r="B226" s="19"/>
       <c r="C226" s="10"/>
       <c r="D226" s="10"/>
       <c r="E226" s="21"/>
       <c r="F226" s="19"/>
-      <c r="G226" s="27"/>
-      <c r="H226" s="35"/>
+      <c r="G226" s="26"/>
+      <c r="H226" s="20"/>
       <c r="I226" s="19"/>
       <c r="J226" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K226" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L226" s="15"/>
@@ -19820,70 +17345,70 @@
     <row r="227" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="9"/>
       <c r="B227" s="21"/>
-      <c r="C227" s="19"/>
-      <c r="D227" s="19"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
       <c r="E227" s="21"/>
       <c r="F227" s="19"/>
-      <c r="G227" s="26"/>
-      <c r="H227" s="20"/>
+      <c r="G227" s="27"/>
+      <c r="H227" s="35"/>
       <c r="I227" s="19"/>
       <c r="J227" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K227" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L227" s="10"/>
+      <c r="L227" s="15"/>
       <c r="M227" s="42"/>
     </row>
     <row r="228" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="9"/>
-      <c r="B228" s="19"/>
-      <c r="C228" s="10"/>
-      <c r="D228" s="10"/>
+      <c r="B228" s="21"/>
+      <c r="C228" s="19"/>
+      <c r="D228" s="19"/>
       <c r="E228" s="21"/>
       <c r="F228" s="19"/>
       <c r="G228" s="26"/>
       <c r="H228" s="20"/>
       <c r="I228" s="19"/>
       <c r="J228" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K228" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L228" s="15"/>
+      <c r="L228" s="10"/>
       <c r="M228" s="42"/>
     </row>
     <row r="229" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="9"/>
-      <c r="B229" s="10"/>
-      <c r="C229" s="11"/>
-      <c r="D229" s="11"/>
+      <c r="B229" s="19"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
       <c r="E229" s="21"/>
       <c r="F229" s="19"/>
       <c r="G229" s="26"/>
       <c r="H229" s="20"/>
-      <c r="I229" s="12"/>
+      <c r="I229" s="19"/>
       <c r="J229" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K229" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L229" s="19"/>
+      <c r="L229" s="15"/>
       <c r="M229" s="42"/>
     </row>
     <row r="230" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="9"/>
       <c r="B230" s="10"/>
-      <c r="C230" s="10"/>
+      <c r="C230" s="11"/>
       <c r="D230" s="11"/>
       <c r="E230" s="21"/>
       <c r="F230" s="19"/>
@@ -19891,32 +17416,32 @@
       <c r="H230" s="20"/>
       <c r="I230" s="12"/>
       <c r="J230" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K230" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L230" s="15"/>
+      <c r="L230" s="19"/>
       <c r="M230" s="42"/>
     </row>
     <row r="231" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="9"/>
       <c r="B231" s="10"/>
-      <c r="C231" s="11"/>
-      <c r="D231" s="10"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="11"/>
       <c r="E231" s="21"/>
       <c r="F231" s="19"/>
       <c r="G231" s="26"/>
       <c r="H231" s="20"/>
       <c r="I231" s="12"/>
       <c r="J231" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K231" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L231" s="15"/>
@@ -19926,21 +17451,21 @@
       <c r="A232" s="9"/>
       <c r="B232" s="10"/>
       <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
+      <c r="D232" s="10"/>
       <c r="E232" s="21"/>
       <c r="F232" s="19"/>
       <c r="G232" s="26"/>
       <c r="H232" s="20"/>
       <c r="I232" s="12"/>
       <c r="J232" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K232" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L232" s="10"/>
+      <c r="L232" s="15"/>
       <c r="M232" s="42"/>
     </row>
     <row r="233" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -19951,38 +17476,38 @@
       <c r="E233" s="21"/>
       <c r="F233" s="19"/>
       <c r="G233" s="26"/>
-      <c r="H233" s="35"/>
-      <c r="I233" s="19"/>
+      <c r="H233" s="20"/>
+      <c r="I233" s="12"/>
       <c r="J233" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K233" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L233" s="19"/>
+      <c r="L233" s="10"/>
       <c r="M233" s="42"/>
     </row>
     <row r="234" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="9"/>
-      <c r="B234" s="21"/>
-      <c r="C234" s="10"/>
-      <c r="D234" s="10"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
       <c r="E234" s="21"/>
       <c r="F234" s="19"/>
       <c r="G234" s="26"/>
-      <c r="H234" s="20"/>
+      <c r="H234" s="35"/>
       <c r="I234" s="19"/>
       <c r="J234" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K234" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L234" s="15"/>
+      <c r="L234" s="19"/>
       <c r="M234" s="42"/>
     </row>
     <row r="235" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -19996,11 +17521,11 @@
       <c r="H235" s="20"/>
       <c r="I235" s="19"/>
       <c r="J235" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K235" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L235" s="15"/>
@@ -20008,71 +17533,71 @@
     </row>
     <row r="236" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="9"/>
-      <c r="B236" s="19"/>
+      <c r="B236" s="21"/>
       <c r="C236" s="10"/>
       <c r="D236" s="10"/>
       <c r="E236" s="21"/>
       <c r="F236" s="19"/>
       <c r="G236" s="26"/>
-      <c r="H236" s="35"/>
+      <c r="H236" s="20"/>
       <c r="I236" s="19"/>
       <c r="J236" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K236" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L236" s="15"/>
-      <c r="M236" s="41"/>
+      <c r="M236" s="42"/>
     </row>
     <row r="237" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="9"/>
-      <c r="B237" s="10"/>
+      <c r="B237" s="19"/>
       <c r="C237" s="10"/>
-      <c r="D237" s="11"/>
+      <c r="D237" s="10"/>
       <c r="E237" s="21"/>
       <c r="F237" s="19"/>
       <c r="G237" s="26"/>
       <c r="H237" s="35"/>
       <c r="I237" s="19"/>
       <c r="J237" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K237" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L237" s="15"/>
-      <c r="M237" s="42"/>
+      <c r="M237" s="41"/>
     </row>
     <row r="238" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="9"/>
-      <c r="B238" s="21"/>
-      <c r="C238" s="19"/>
-      <c r="D238" s="10"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="11"/>
       <c r="E238" s="21"/>
       <c r="F238" s="19"/>
       <c r="G238" s="26"/>
       <c r="H238" s="35"/>
       <c r="I238" s="19"/>
       <c r="J238" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K238" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L238" s="10"/>
-      <c r="M238" s="41"/>
+      <c r="L238" s="15"/>
+      <c r="M238" s="42"/>
     </row>
     <row r="239" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="9"/>
-      <c r="B239" s="10"/>
-      <c r="C239" s="10"/>
+      <c r="B239" s="21"/>
+      <c r="C239" s="19"/>
       <c r="D239" s="10"/>
       <c r="E239" s="21"/>
       <c r="F239" s="19"/>
@@ -20080,11 +17605,11 @@
       <c r="H239" s="35"/>
       <c r="I239" s="19"/>
       <c r="J239" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K239" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L239" s="10"/>
@@ -20092,20 +17617,20 @@
     </row>
     <row r="240" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="9"/>
-      <c r="B240" s="21"/>
+      <c r="B240" s="10"/>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
       <c r="E240" s="21"/>
       <c r="F240" s="19"/>
-      <c r="G240" s="27"/>
-      <c r="H240" s="34"/>
-      <c r="I240" s="12"/>
+      <c r="G240" s="26"/>
+      <c r="H240" s="35"/>
+      <c r="I240" s="19"/>
       <c r="J240" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K240" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L240" s="10"/>
@@ -20114,19 +17639,19 @@
     <row r="241" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="9"/>
       <c r="B241" s="21"/>
-      <c r="C241" s="19"/>
-      <c r="D241" s="19"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10"/>
       <c r="E241" s="21"/>
       <c r="F241" s="19"/>
-      <c r="G241" s="26"/>
-      <c r="H241" s="20"/>
-      <c r="I241" s="19"/>
+      <c r="G241" s="27"/>
+      <c r="H241" s="34"/>
+      <c r="I241" s="12"/>
       <c r="J241" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K241" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L241" s="10"/>
@@ -20143,15 +17668,15 @@
       <c r="H242" s="20"/>
       <c r="I242" s="19"/>
       <c r="J242" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K242" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L242" s="15"/>
-      <c r="M242" s="42"/>
+      <c r="L242" s="10"/>
+      <c r="M242" s="41"/>
     </row>
     <row r="243" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="9"/>
@@ -20164,15 +17689,15 @@
       <c r="H243" s="20"/>
       <c r="I243" s="19"/>
       <c r="J243" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K243" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L243" s="15"/>
-      <c r="M243" s="41"/>
+      <c r="M243" s="42"/>
     </row>
     <row r="244" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="9"/>
@@ -20185,14 +17710,14 @@
       <c r="H244" s="20"/>
       <c r="I244" s="19"/>
       <c r="J244" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K244" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L244" s="10"/>
+      <c r="L244" s="15"/>
       <c r="M244" s="41"/>
     </row>
     <row r="245" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -20206,11 +17731,11 @@
       <c r="H245" s="20"/>
       <c r="I245" s="19"/>
       <c r="J245" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K245" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L245" s="10"/>
@@ -20227,15 +17752,15 @@
       <c r="H246" s="20"/>
       <c r="I246" s="19"/>
       <c r="J246" s="13">
-        <f t="shared" ref="J246:J283" si="12">IFERROR(ROUND((ROUND(INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2)+ROUND(INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2))/2000,4),)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K246" s="14">
-        <f t="shared" ref="K246:K283" si="13">IFERROR(ROUND(F:F/J:J,0),)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L246" s="10"/>
-      <c r="M246" s="42"/>
+      <c r="M246" s="41"/>
     </row>
     <row r="247" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="9"/>
@@ -20248,15 +17773,15 @@
       <c r="H247" s="20"/>
       <c r="I247" s="19"/>
       <c r="J247" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K247" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L247" s="15"/>
-      <c r="M247" s="41"/>
+      <c r="L247" s="10"/>
+      <c r="M247" s="42"/>
     </row>
     <row r="248" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="9"/>
@@ -20269,15 +17794,15 @@
       <c r="H248" s="20"/>
       <c r="I248" s="19"/>
       <c r="J248" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K248" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L248" s="10"/>
-      <c r="M248" s="42"/>
+      <c r="L248" s="15"/>
+      <c r="M248" s="41"/>
     </row>
     <row r="249" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="9"/>
@@ -20290,15 +17815,15 @@
       <c r="H249" s="20"/>
       <c r="I249" s="19"/>
       <c r="J249" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K249" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L249" s="15"/>
-      <c r="M249" s="41"/>
+      <c r="L249" s="10"/>
+      <c r="M249" s="42"/>
     </row>
     <row r="250" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="9"/>
@@ -20311,14 +17836,14 @@
       <c r="H250" s="20"/>
       <c r="I250" s="19"/>
       <c r="J250" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K250" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L250" s="10"/>
+      <c r="L250" s="15"/>
       <c r="M250" s="41"/>
     </row>
     <row r="251" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -20332,15 +17857,15 @@
       <c r="H251" s="20"/>
       <c r="I251" s="19"/>
       <c r="J251" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K251" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L251" s="15"/>
-      <c r="M251" s="42"/>
+      <c r="L251" s="10"/>
+      <c r="M251" s="41"/>
     </row>
     <row r="252" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="9"/>
@@ -20353,15 +17878,15 @@
       <c r="H252" s="20"/>
       <c r="I252" s="19"/>
       <c r="J252" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K252" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L252" s="10"/>
-      <c r="M252" s="41"/>
+      <c r="L252" s="15"/>
+      <c r="M252" s="42"/>
     </row>
     <row r="253" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="9"/>
@@ -20374,15 +17899,15 @@
       <c r="H253" s="20"/>
       <c r="I253" s="19"/>
       <c r="J253" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K253" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L253" s="15"/>
-      <c r="M253" s="42"/>
+      <c r="L253" s="10"/>
+      <c r="M253" s="41"/>
     </row>
     <row r="254" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="9"/>
@@ -20395,15 +17920,15 @@
       <c r="H254" s="20"/>
       <c r="I254" s="19"/>
       <c r="J254" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K254" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L254" s="19"/>
-      <c r="M254" s="41"/>
+      <c r="L254" s="15"/>
+      <c r="M254" s="42"/>
     </row>
     <row r="255" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="9"/>
@@ -20416,11 +17941,11 @@
       <c r="H255" s="20"/>
       <c r="I255" s="19"/>
       <c r="J255" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K255" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L255" s="19"/>
@@ -20437,11 +17962,11 @@
       <c r="H256" s="20"/>
       <c r="I256" s="19"/>
       <c r="J256" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J256:J284" si="18">IFERROR(ROUND((ROUND(INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(EVEN(G:G*10)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2)+ROUND(INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_)) + (H:H*1000-ROUNDDOWN(H:H*1000/10,0)*10) * (INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),1+MATCH(H:H*1000,_r_))-INDEX(_ПП_15_,MATCH(ODD(G:G*10+(G:G&lt;0)*2)/10,_t_),MATCH(H:H*1000,_r_))) / 10,2))/2000,4),)</f>
         <v>0</v>
       </c>
       <c r="K256" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="K256:K284" si="19">IFERROR(ROUND(F:F/J:J,0),)</f>
         <v>0</v>
       </c>
       <c r="L256" s="19"/>
@@ -20458,14 +17983,14 @@
       <c r="H257" s="20"/>
       <c r="I257" s="19"/>
       <c r="J257" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K257" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L257" s="15"/>
+      <c r="L257" s="19"/>
       <c r="M257" s="41"/>
     </row>
     <row r="258" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -20479,14 +18004,14 @@
       <c r="H258" s="20"/>
       <c r="I258" s="19"/>
       <c r="J258" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K258" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L258" s="19"/>
+      <c r="L258" s="15"/>
       <c r="M258" s="41"/>
     </row>
     <row r="259" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -20500,15 +18025,15 @@
       <c r="H259" s="20"/>
       <c r="I259" s="19"/>
       <c r="J259" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K259" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L259" s="19"/>
-      <c r="M259" s="42"/>
+      <c r="M259" s="41"/>
     </row>
     <row r="260" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="9"/>
@@ -20521,11 +18046,11 @@
       <c r="H260" s="20"/>
       <c r="I260" s="19"/>
       <c r="J260" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K260" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L260" s="19"/>
@@ -20542,15 +18067,15 @@
       <c r="H261" s="20"/>
       <c r="I261" s="19"/>
       <c r="J261" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K261" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L261" s="15"/>
-      <c r="M261" s="41"/>
+      <c r="L261" s="19"/>
+      <c r="M261" s="42"/>
     </row>
     <row r="262" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="9"/>
@@ -20563,53 +18088,53 @@
       <c r="H262" s="20"/>
       <c r="I262" s="19"/>
       <c r="J262" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K262" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L262" s="19"/>
-      <c r="M262" s="42"/>
+      <c r="L262" s="15"/>
+      <c r="M262" s="41"/>
     </row>
     <row r="263" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="9"/>
       <c r="B263" s="21"/>
-      <c r="C263" s="10"/>
-      <c r="D263" s="10"/>
+      <c r="C263" s="19"/>
+      <c r="D263" s="19"/>
       <c r="E263" s="21"/>
       <c r="F263" s="19"/>
       <c r="G263" s="26"/>
       <c r="H263" s="20"/>
-      <c r="I263" s="12"/>
+      <c r="I263" s="19"/>
       <c r="J263" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K263" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L263" s="19"/>
-      <c r="M263" s="41"/>
+      <c r="M263" s="42"/>
     </row>
     <row r="264" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="9"/>
       <c r="B264" s="21"/>
-      <c r="C264" s="19"/>
-      <c r="D264" s="19"/>
+      <c r="C264" s="10"/>
+      <c r="D264" s="10"/>
       <c r="E264" s="21"/>
       <c r="F264" s="19"/>
       <c r="G264" s="26"/>
       <c r="H264" s="20"/>
-      <c r="I264" s="19"/>
+      <c r="I264" s="12"/>
       <c r="J264" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K264" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L264" s="19"/>
@@ -20626,15 +18151,15 @@
       <c r="H265" s="20"/>
       <c r="I265" s="19"/>
       <c r="J265" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K265" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L265" s="19"/>
-      <c r="M265" s="42"/>
+      <c r="M265" s="41"/>
     </row>
     <row r="266" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="9"/>
@@ -20647,15 +18172,15 @@
       <c r="H266" s="20"/>
       <c r="I266" s="19"/>
       <c r="J266" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K266" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L266" s="19"/>
-      <c r="M266" s="41"/>
+      <c r="M266" s="42"/>
     </row>
     <row r="267" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="9"/>
@@ -20668,11 +18193,11 @@
       <c r="H267" s="20"/>
       <c r="I267" s="19"/>
       <c r="J267" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K267" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L267" s="19"/>
@@ -20689,11 +18214,11 @@
       <c r="H268" s="20"/>
       <c r="I268" s="19"/>
       <c r="J268" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K268" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L268" s="19"/>
@@ -20710,11 +18235,11 @@
       <c r="H269" s="20"/>
       <c r="I269" s="19"/>
       <c r="J269" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K269" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L269" s="19"/>
@@ -20731,11 +18256,11 @@
       <c r="H270" s="20"/>
       <c r="I270" s="19"/>
       <c r="J270" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K270" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L270" s="19"/>
@@ -20752,15 +18277,15 @@
       <c r="H271" s="20"/>
       <c r="I271" s="19"/>
       <c r="J271" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K271" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L271" s="15"/>
-      <c r="M271" s="42"/>
+      <c r="L271" s="19"/>
+      <c r="M271" s="41"/>
     </row>
     <row r="272" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="9"/>
@@ -20773,15 +18298,15 @@
       <c r="H272" s="20"/>
       <c r="I272" s="19"/>
       <c r="J272" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K272" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L272" s="19"/>
-      <c r="M272" s="41"/>
+      <c r="L272" s="15"/>
+      <c r="M272" s="42"/>
     </row>
     <row r="273" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="9"/>
@@ -20794,14 +18319,14 @@
       <c r="H273" s="20"/>
       <c r="I273" s="19"/>
       <c r="J273" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K273" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L273" s="10"/>
+      <c r="L273" s="19"/>
       <c r="M273" s="41"/>
     </row>
     <row r="274" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -20815,14 +18340,14 @@
       <c r="H274" s="20"/>
       <c r="I274" s="19"/>
       <c r="J274" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K274" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L274" s="19"/>
+      <c r="L274" s="10"/>
       <c r="M274" s="41"/>
     </row>
     <row r="275" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -20836,11 +18361,11 @@
       <c r="H275" s="20"/>
       <c r="I275" s="19"/>
       <c r="J275" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K275" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L275" s="19"/>
@@ -20857,15 +18382,15 @@
       <c r="H276" s="20"/>
       <c r="I276" s="19"/>
       <c r="J276" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K276" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L276" s="19"/>
-      <c r="M276" s="42"/>
+      <c r="M276" s="41"/>
     </row>
     <row r="277" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="9"/>
@@ -20878,15 +18403,15 @@
       <c r="H277" s="20"/>
       <c r="I277" s="19"/>
       <c r="J277" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K277" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L277" s="19"/>
-      <c r="M277" s="41"/>
+      <c r="M277" s="42"/>
     </row>
     <row r="278" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="9"/>
@@ -20899,11 +18424,11 @@
       <c r="H278" s="20"/>
       <c r="I278" s="19"/>
       <c r="J278" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K278" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L278" s="19"/>
@@ -20920,15 +18445,15 @@
       <c r="H279" s="20"/>
       <c r="I279" s="19"/>
       <c r="J279" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K279" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L279" s="19"/>
-      <c r="M279" s="42"/>
+      <c r="M279" s="41"/>
     </row>
     <row r="280" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="9"/>
@@ -20941,15 +18466,15 @@
       <c r="H280" s="20"/>
       <c r="I280" s="19"/>
       <c r="J280" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K280" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L280" s="19"/>
-      <c r="M280" s="41"/>
+      <c r="M280" s="42"/>
     </row>
     <row r="281" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="9"/>
@@ -20962,11 +18487,11 @@
       <c r="H281" s="20"/>
       <c r="I281" s="19"/>
       <c r="J281" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K281" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L281" s="19"/>
@@ -20983,15 +18508,15 @@
       <c r="H282" s="20"/>
       <c r="I282" s="19"/>
       <c r="J282" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K282" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L282" s="19"/>
-      <c r="M282" s="42"/>
+      <c r="M282" s="41"/>
     </row>
     <row r="283" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="9"/>
@@ -21004,34 +18529,55 @@
       <c r="H283" s="20"/>
       <c r="I283" s="19"/>
       <c r="J283" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K283" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L283" s="19"/>
-      <c r="M283" s="41"/>
+      <c r="M283" s="42"/>
     </row>
     <row r="284" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M284" s="42"/>
+      <c r="A284" s="9"/>
+      <c r="B284" s="21"/>
+      <c r="C284" s="19"/>
+      <c r="D284" s="19"/>
+      <c r="E284" s="21"/>
+      <c r="F284" s="19"/>
+      <c r="G284" s="26"/>
+      <c r="H284" s="20"/>
+      <c r="I284" s="19"/>
+      <c r="J284" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K284" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L284" s="19"/>
+      <c r="M284" s="41"/>
     </row>
     <row r="285" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M285" s="41"/>
+      <c r="M285" s="42"/>
     </row>
     <row r="286" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M286" s="42"/>
+      <c r="M286" s="41"/>
     </row>
     <row r="287" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M287" s="41"/>
+      <c r="M287" s="42"/>
     </row>
     <row r="288" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M288" s="41"/>
     </row>
+    <row r="289" spans="13:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M289" s="41"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L283">
-    <sortCondition ref="A2:A283"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L284">
+    <sortCondition ref="A2:A284"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
